--- a/project/comparison_all.xlsx
+++ b/project/comparison_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Phython\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A2DF9-52AC-453B-848A-F8B5053B333C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167AE28E-E07E-4C32-86AE-616054D69A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{1899AF0F-209B-4A31-B5AB-5BE6E222A0DD}"/>
+    <workbookView xWindow="32055" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{1899AF0F-209B-4A31-B5AB-5BE6E222A0DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="258">
   <si>
     <t>date</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>원/달러 환율 (매매기준율)</t>
-  </si>
-  <si>
     <t>gold_price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -808,11 +805,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VIX_종가</t>
+    <t>gold_price2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>금ETF</t>
+    <t>VIX_종가2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금ETF2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원/달러 환율 (매매기준율)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2538,7 +2543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gold_price</c:v>
+                  <c:v>gold_price2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4088,7 +4093,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VIX_종가</c:v>
+                  <c:v>VIX_종가2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5638,7 +5643,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>금ETF</c:v>
+                  <c:v>금ETF2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10329,16 +10334,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10701,8 +10706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE28BE2-2F89-4680-A69C-D1C4552D4CBC}">
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J21" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10715,25 +10720,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" t="s">
         <v>254</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>255</v>
@@ -10744,7 +10749,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1422.5</v>
@@ -10759,28 +10764,28 @@
         <v>32015</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
-        <f xml:space="preserve"> (B2 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H2:H33" si="0" xml:space="preserve"> (B2 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.60493827160493829</v>
       </c>
       <c r="I2">
-        <f xml:space="preserve"> (C2 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" ref="I2:I65" si="1" xml:space="preserve"> (C2 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <f xml:space="preserve"> (D2- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" ref="J2:J65" si="2" xml:space="preserve"> (D2- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
         <v>0.19893832153690599</v>
       </c>
       <c r="K2" s="5">
-        <f xml:space="preserve"> (E2- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" ref="K2:K65" si="3" xml:space="preserve"> (E2- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1430.5</v>
@@ -10795,28 +10800,28 @@
         <v>30825</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <f xml:space="preserve"> (B3 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.65432098765432101</v>
       </c>
       <c r="I3">
-        <f xml:space="preserve"> (C3 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.95641025641025645</v>
       </c>
       <c r="J3" s="2">
-        <f xml:space="preserve"> (D3- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.20323559150657225</v>
       </c>
       <c r="K3" s="5">
-        <f xml:space="preserve"> (E3- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.92571785268414486</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>1427</v>
@@ -10831,28 +10836,28 @@
         <v>29500</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <f xml:space="preserve"> (B4 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.63271604938271608</v>
       </c>
       <c r="I4">
-        <f xml:space="preserve"> (C4 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.91025641025641024</v>
       </c>
       <c r="J4" s="2">
-        <f xml:space="preserve"> (D4- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.15824064711830135</v>
       </c>
       <c r="K4" s="5">
-        <f xml:space="preserve"> (E4- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.84300873907615481</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1436</v>
@@ -10867,22 +10872,22 @@
         <v>27945</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
-        <f xml:space="preserve"> (B5 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.68827160493827155</v>
       </c>
       <c r="I5">
-        <f xml:space="preserve"> (C5 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.85384615384615381</v>
       </c>
       <c r="J5" s="2">
-        <f xml:space="preserve"> (D5- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.22472194135490395</v>
       </c>
       <c r="K5" s="5">
-        <f xml:space="preserve"> (E5- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.74594257178526846</v>
       </c>
       <c r="O5">
@@ -10892,7 +10897,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>1424.7</v>
@@ -10907,22 +10912,22 @@
         <v>26360</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2">
-        <f xml:space="preserve"> (B6 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.6185185185185188</v>
       </c>
       <c r="I6">
-        <f xml:space="preserve"> (C6 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.74358974358974361</v>
       </c>
       <c r="J6" s="2">
-        <f xml:space="preserve"> (D6- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.7573306370070764E-2</v>
       </c>
       <c r="K6" s="5">
-        <f xml:space="preserve"> (E6- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.64700374531835203</v>
       </c>
       <c r="L6" s="3">
@@ -10932,7 +10937,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>1403.5</v>
@@ -10947,28 +10952,28 @@
         <v>26990</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2">
-        <f xml:space="preserve"> (B7 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.48765432098765432</v>
       </c>
       <c r="I7">
-        <f xml:space="preserve"> (C7 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="J7" s="2">
-        <f xml:space="preserve"> (D7- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.8978766430738099E-2</v>
       </c>
       <c r="K7" s="5">
-        <f xml:space="preserve"> (E7- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.68632958801498123</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>1406</v>
@@ -10983,28 +10988,28 @@
         <v>27400</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2">
-        <f xml:space="preserve"> (B8 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.50308641975308643</v>
       </c>
       <c r="I8">
-        <f xml:space="preserve"> (C8 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.75128205128205128</v>
       </c>
       <c r="J8" s="2">
-        <f xml:space="preserve"> (D8- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.8725985844287189E-2</v>
       </c>
       <c r="K8" s="5">
-        <f xml:space="preserve"> (E8- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.71192259675405745</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>1400.5</v>
@@ -11019,28 +11024,28 @@
         <v>26150</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
-        <f xml:space="preserve"> (B9 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.46913580246913578</v>
       </c>
       <c r="I9">
-        <f xml:space="preserve"> (C9 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.69487179487179485</v>
       </c>
       <c r="J9" s="2">
-        <f xml:space="preserve"> (D9- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.4681496461071815E-2</v>
       </c>
       <c r="K9" s="5">
-        <f xml:space="preserve"> (E9- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.63389513108614237</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>1410.5</v>
@@ -11055,28 +11060,28 @@
         <v>25225</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2">
-        <f xml:space="preserve"> (B10 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.53086419753086422</v>
       </c>
       <c r="I10">
-        <f xml:space="preserve"> (C10 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.67179487179487174</v>
       </c>
       <c r="J10" s="2">
-        <f xml:space="preserve"> (D10- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.3700707785642047E-2</v>
       </c>
       <c r="K10" s="5">
-        <f xml:space="preserve"> (E10- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.57615480649188511</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>1409</v>
@@ -11091,28 +11096,28 @@
         <v>24950</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="2">
-        <f xml:space="preserve"> (B11 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.52160493827160492</v>
       </c>
       <c r="I11">
-        <f xml:space="preserve"> (C11 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.66153846153846152</v>
       </c>
       <c r="J11" s="2">
-        <f xml:space="preserve"> (D11- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.10035389282103131</v>
       </c>
       <c r="K11" s="5">
-        <f xml:space="preserve"> (E11- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.5589887640449438</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>1405</v>
@@ -11127,28 +11132,28 @@
         <v>25005</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2">
-        <f xml:space="preserve"> (B12 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.49691358024691357</v>
       </c>
       <c r="I12">
-        <f xml:space="preserve"> (C12 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J12" s="2">
-        <f xml:space="preserve"> (D12- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.6198179979777551E-2</v>
       </c>
       <c r="K12" s="5">
-        <f xml:space="preserve"> (E12- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.56242197253433213</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>1395.5</v>
@@ -11163,28 +11168,28 @@
         <v>24605</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2">
-        <f xml:space="preserve"> (B13 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.43827160493827161</v>
       </c>
       <c r="I13">
-        <f xml:space="preserve"> (C13 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.63589743589743586</v>
       </c>
       <c r="J13" s="2">
-        <f xml:space="preserve"> (D13- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.7826086956521757E-2</v>
       </c>
       <c r="K13" s="5">
-        <f xml:space="preserve"> (E13- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.53745318352059923</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>1392</v>
@@ -11199,28 +11204,28 @@
         <v>24065</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2">
-        <f xml:space="preserve"> (B14 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="I14">
-        <f xml:space="preserve"> (C14 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="J14" s="2">
-        <f xml:space="preserve"> (D14- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.4175935288169912E-2</v>
       </c>
       <c r="K14" s="5">
-        <f xml:space="preserve"> (E14- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.50374531835205993</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
         <v>1399</v>
@@ -11235,28 +11240,28 @@
         <v>23620</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2">
-        <f xml:space="preserve"> (B15 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.45987654320987653</v>
       </c>
       <c r="I15">
-        <f xml:space="preserve"> (C15 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.58205128205128209</v>
       </c>
       <c r="J15" s="2">
-        <f xml:space="preserve"> (D15- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.7745197168857421E-2</v>
       </c>
       <c r="K15" s="5">
-        <f xml:space="preserve"> (E15- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.47596754057428214</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>1388.5</v>
@@ -11271,28 +11276,28 @@
         <v>23760</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2">
-        <f xml:space="preserve"> (B16 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="I16">
-        <f xml:space="preserve"> (C16 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.5641025641025641</v>
       </c>
       <c r="J16" s="2">
-        <f xml:space="preserve"> (D16- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>7.4064711830131441E-2</v>
       </c>
       <c r="K16" s="5">
-        <f xml:space="preserve"> (E16- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.48470661672908866</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>1381</v>
@@ -11307,28 +11312,28 @@
         <v>24080</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2">
-        <f xml:space="preserve"> (B17 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.34876543209876543</v>
       </c>
       <c r="I17">
-        <f xml:space="preserve"> (C17 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.57435897435897432</v>
       </c>
       <c r="J17" s="2">
-        <f xml:space="preserve"> (D17- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>7.4570273003033385E-2</v>
       </c>
       <c r="K17" s="5">
-        <f xml:space="preserve"> (E17- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.50468164794007486</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>1379.8</v>
@@ -11343,28 +11348,28 @@
         <v>23805</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="2">
-        <f xml:space="preserve"> (B18 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.34135802469135773</v>
       </c>
       <c r="I18">
-        <f xml:space="preserve"> (C18 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.56923076923076921</v>
       </c>
       <c r="J18" s="2">
-        <f xml:space="preserve"> (D18- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.0748230535894828E-2</v>
       </c>
       <c r="K18" s="5">
-        <f xml:space="preserve"> (E18- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.48751560549313361</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>1386.5</v>
@@ -11379,28 +11384,28 @@
         <v>23365</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2">
-        <f xml:space="preserve"> (B19 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.38271604938271603</v>
       </c>
       <c r="I19">
-        <f xml:space="preserve"> (C19 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.5461538461538461</v>
       </c>
       <c r="J19" s="2">
-        <f xml:space="preserve"> (D19- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>7.3811931243680476E-2</v>
       </c>
       <c r="K19" s="5">
-        <f xml:space="preserve"> (E19- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.46004993757802748</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1394</v>
@@ -11415,28 +11420,28 @@
         <v>23430</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2">
-        <f xml:space="preserve"> (B20 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.42901234567901236</v>
       </c>
       <c r="I20">
-        <f xml:space="preserve"> (C20 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.55128205128205132</v>
       </c>
       <c r="J20" s="2">
-        <f xml:space="preserve"> (D20- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.0303336703741153E-2</v>
       </c>
       <c r="K20" s="5">
-        <f xml:space="preserve"> (E20- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.46410736579275907</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>1390.4</v>
@@ -11451,28 +11456,28 @@
         <v>23340</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2">
-        <f xml:space="preserve"> (B21 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.40679012345679066</v>
       </c>
       <c r="I21">
-        <f xml:space="preserve"> (C21 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.5461538461538461</v>
       </c>
       <c r="J21" s="2">
-        <f xml:space="preserve"> (D21- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>4.9039433771486382E-2</v>
       </c>
       <c r="K21" s="5">
-        <f xml:space="preserve"> (E21- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.45848938826466917</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>1389.9</v>
@@ -11487,28 +11492,28 @@
         <v>23235</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2">
-        <f xml:space="preserve"> (B22 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.40370370370370429</v>
       </c>
       <c r="I22">
-        <f xml:space="preserve"> (C22 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.54358974358974355</v>
       </c>
       <c r="J22" s="2">
-        <f xml:space="preserve"> (D22- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="K22" s="5">
-        <f xml:space="preserve"> (E22- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.45193508114856429</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>1390</v>
@@ -11523,28 +11528,28 @@
         <v>23395</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2">
-        <f xml:space="preserve"> (B23 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.40432098765432101</v>
       </c>
       <c r="I23">
-        <f xml:space="preserve"> (C23 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.54358974358974355</v>
       </c>
       <c r="J23" s="2">
-        <f xml:space="preserve"> (D23- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.7381193124368034E-2</v>
       </c>
       <c r="K23" s="5">
-        <f xml:space="preserve"> (E23- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.46192259675405745</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>1386.5</v>
@@ -11559,28 +11564,28 @@
         <v>22715</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2">
-        <f xml:space="preserve"> (B24 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.38271604938271603</v>
       </c>
       <c r="I24">
-        <f xml:space="preserve"> (C24 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.517948717948718</v>
       </c>
       <c r="J24" s="2">
-        <f xml:space="preserve"> (D24- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.9150657229524763E-2</v>
       </c>
       <c r="K24" s="5">
-        <f xml:space="preserve"> (E24- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.41947565543071164</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>1391</v>
@@ -11595,28 +11600,28 @@
         <v>22460</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2">
-        <f xml:space="preserve"> (B25 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.41049382716049382</v>
       </c>
       <c r="I25">
-        <f xml:space="preserve"> (C25 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.50256410256410255</v>
       </c>
       <c r="J25" s="2">
-        <f xml:space="preserve"> (D25- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.0920121334681498E-2</v>
       </c>
       <c r="K25" s="5">
-        <f xml:space="preserve"> (E25- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.40355805243445692</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>1394</v>
@@ -11631,28 +11636,28 @@
         <v>22305</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="2">
-        <f xml:space="preserve"> (B26 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.42901234567901236</v>
       </c>
       <c r="I26">
-        <f xml:space="preserve"> (C26 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.49230769230769234</v>
       </c>
       <c r="J26" s="2">
-        <f xml:space="preserve"> (D26- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.3953488372093054E-2</v>
       </c>
       <c r="K26" s="5">
-        <f xml:space="preserve"> (E26- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.39388264669163547</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>1391</v>
@@ -11667,28 +11672,28 @@
         <v>22355</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" s="2">
-        <f xml:space="preserve"> (B27 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.41049382716049382</v>
       </c>
       <c r="I27">
-        <f xml:space="preserve"> (C27 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.48717948717948717</v>
       </c>
       <c r="J27" s="2">
-        <f xml:space="preserve"> (D27- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.0495449949443918E-2</v>
       </c>
       <c r="K27" s="5">
-        <f xml:space="preserve"> (E27- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.39700374531835209</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>1396</v>
@@ -11703,28 +11708,28 @@
         <v>22065</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="2">
-        <f xml:space="preserve"> (B28 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.44135802469135804</v>
       </c>
       <c r="I28">
-        <f xml:space="preserve"> (C28 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="J28" s="2">
-        <f xml:space="preserve"> (D28- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.11122345803842269</v>
       </c>
       <c r="K28" s="5">
-        <f xml:space="preserve"> (E28- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.37890137328339574</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>1393.5</v>
@@ -11739,28 +11744,28 @@
         <v>22045</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2">
-        <f xml:space="preserve"> (B29 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.42592592592592593</v>
       </c>
       <c r="I29">
-        <f xml:space="preserve"> (C29 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.46410256410256412</v>
       </c>
       <c r="J29" s="2">
-        <f xml:space="preserve"> (D29- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.4681496461071815E-2</v>
       </c>
       <c r="K29" s="5">
-        <f xml:space="preserve"> (E29- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.37765293383270909</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>1391.5</v>
@@ -11775,28 +11780,28 @@
         <v>21495</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30" s="2">
-        <f xml:space="preserve"> (B30 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.41358024691358025</v>
       </c>
       <c r="I30">
-        <f xml:space="preserve"> (C30 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="J30" s="2">
-        <f xml:space="preserve"> (D30- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.5470171890798776E-2</v>
       </c>
       <c r="K30" s="5">
-        <f xml:space="preserve"> (E30- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.34332084893882647</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>1385.5</v>
@@ -11811,28 +11816,28 @@
         <v>21355</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="2">
-        <f xml:space="preserve"> (B31 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.37654320987654322</v>
       </c>
       <c r="I31">
-        <f xml:space="preserve"> (C31 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.41538461538461541</v>
       </c>
       <c r="J31" s="2">
-        <f xml:space="preserve"> (D31- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>4.1961577350859453E-2</v>
       </c>
       <c r="K31" s="5">
-        <f xml:space="preserve"> (E31- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.33458177278401996</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>1394</v>
@@ -11847,28 +11852,28 @@
         <v>21375</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="2">
-        <f xml:space="preserve"> (B32 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.42901234567901236</v>
       </c>
       <c r="I32">
-        <f xml:space="preserve"> (C32 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.41538461538461541</v>
       </c>
       <c r="J32" s="2">
-        <f xml:space="preserve"> (D32- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.2578361981799798E-2</v>
       </c>
       <c r="K32" s="5">
-        <f xml:space="preserve"> (E32- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.3358302122347066</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>1395</v>
@@ -11883,28 +11888,28 @@
         <v>21335</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="2">
-        <f xml:space="preserve"> (B33 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="0"/>
         <v>0.43518518518518517</v>
       </c>
       <c r="I33">
-        <f xml:space="preserve"> (C33 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.4128205128205128</v>
       </c>
       <c r="J33" s="2">
-        <f xml:space="preserve"> (D33- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>4.6764408493427695E-2</v>
       </c>
       <c r="K33" s="5">
-        <f xml:space="preserve"> (E33- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>1391.5</v>
@@ -11919,28 +11924,28 @@
         <v>21135</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="2">
-        <f xml:space="preserve"> (B34 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H34:H65" si="4" xml:space="preserve"> (B34 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.41358024691358025</v>
       </c>
       <c r="I34">
-        <f xml:space="preserve"> (C34 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.40256410256410258</v>
       </c>
       <c r="J34" s="2">
-        <f xml:space="preserve"> (D34- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.1061678463094021E-2</v>
       </c>
       <c r="K34" s="5">
-        <f xml:space="preserve"> (E34- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.32084893882646692</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>1385.9</v>
@@ -11955,28 +11960,28 @@
         <v>21035</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" s="2">
-        <f xml:space="preserve"> (B35 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.37901234567901293</v>
       </c>
       <c r="I35">
-        <f xml:space="preserve"> (C35 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39743589743589741</v>
       </c>
       <c r="J35" s="2">
-        <f xml:space="preserve"> (D35- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>3.6653185035389307E-2</v>
       </c>
       <c r="K35" s="5">
-        <f xml:space="preserve"> (E35- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.3146067415730337</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>1401.5</v>
@@ -11991,28 +11996,28 @@
         <v>21125</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" s="2">
-        <f xml:space="preserve"> (B36 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.47530864197530864</v>
       </c>
       <c r="I36">
-        <f xml:space="preserve"> (C36 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.40512820512820513</v>
       </c>
       <c r="J36" s="2">
-        <f xml:space="preserve"> (D36- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.6814964610717938E-2</v>
       </c>
       <c r="K36" s="5">
-        <f xml:space="preserve"> (E36- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.3202247191011236</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>1397.5</v>
@@ -12027,28 +12032,28 @@
         <v>21100</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="2">
-        <f xml:space="preserve"> (B37 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.45061728395061729</v>
       </c>
       <c r="I37">
-        <f xml:space="preserve"> (C37 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39743589743589741</v>
       </c>
       <c r="J37" s="2">
-        <f xml:space="preserve"> (D37- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>7.3811931243680476E-2</v>
       </c>
       <c r="K37" s="5">
-        <f xml:space="preserve"> (E37- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31866416978776529</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
         <v>1393.2</v>
@@ -12063,28 +12068,28 @@
         <v>21040</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="2">
-        <f xml:space="preserve"> (B38 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.42407407407407438</v>
       </c>
       <c r="I38">
-        <f xml:space="preserve"> (C38 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39487179487179486</v>
       </c>
       <c r="J38" s="2">
-        <f xml:space="preserve"> (D38- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>7.0778564206268976E-2</v>
       </c>
       <c r="K38" s="5">
-        <f xml:space="preserve"> (E38- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31491885143570536</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
         <v>1388.8</v>
@@ -12099,28 +12104,28 @@
         <v>21030</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39" s="2">
-        <f xml:space="preserve"> (B39 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.39691358024691331</v>
       </c>
       <c r="I39">
-        <f xml:space="preserve"> (C39 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39743589743589741</v>
       </c>
       <c r="J39" s="2">
-        <f xml:space="preserve"> (D39- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.6117290192113256E-2</v>
       </c>
       <c r="K39" s="5">
-        <f xml:space="preserve"> (E39- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31429463171036204</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
         <v>1390</v>
@@ -12135,28 +12140,28 @@
         <v>21065</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40" s="2">
-        <f xml:space="preserve"> (B40 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.40432098765432101</v>
       </c>
       <c r="I40">
-        <f xml:space="preserve"> (C40 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="J40" s="2">
-        <f xml:space="preserve"> (D40- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.2072800808897889E-2</v>
       </c>
       <c r="K40" s="5">
-        <f xml:space="preserve"> (E40- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31647940074906367</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
         <v>1380</v>
@@ -12171,28 +12176,28 @@
         <v>20995</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41" s="2">
-        <f xml:space="preserve"> (B41 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.34259259259259262</v>
       </c>
       <c r="I41">
-        <f xml:space="preserve"> (C41 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39487179487179486</v>
       </c>
       <c r="J41" s="2">
-        <f xml:space="preserve"> (D41- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>4.347826086956523E-2</v>
       </c>
       <c r="K41" s="5">
-        <f xml:space="preserve"> (E41- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31210986267166041</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>1385.5</v>
@@ -12207,28 +12212,28 @@
         <v>21035</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="2">
-        <f xml:space="preserve"> (B42 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.37654320987654322</v>
       </c>
       <c r="I42">
-        <f xml:space="preserve"> (C42 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.40256410256410258</v>
       </c>
       <c r="J42" s="2">
-        <f xml:space="preserve"> (D42- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>4.9544994944388292E-2</v>
       </c>
       <c r="K42" s="5">
-        <f xml:space="preserve"> (E42- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.3146067415730337</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>1392.5</v>
@@ -12243,28 +12248,28 @@
         <v>21235</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43" s="2">
-        <f xml:space="preserve"> (B43 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.41975308641975306</v>
       </c>
       <c r="I43">
-        <f xml:space="preserve"> (C43 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.41025641025641024</v>
       </c>
       <c r="J43" s="2">
-        <f xml:space="preserve"> (D43- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.7967644084934279E-2</v>
       </c>
       <c r="K43" s="5">
-        <f xml:space="preserve"> (E43- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.32709113607990015</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>1391.5</v>
@@ -12279,28 +12284,28 @@
         <v>21500</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" s="2">
-        <f xml:space="preserve"> (B44 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.41358024691358025</v>
       </c>
       <c r="I44">
-        <f xml:space="preserve"> (C44 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.41794871794871796</v>
       </c>
       <c r="J44" s="2">
-        <f xml:space="preserve"> (D44- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.0161779575328631E-2</v>
       </c>
       <c r="K44" s="5">
-        <f xml:space="preserve"> (E44- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.34363295880149813</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>1385</v>
@@ -12315,28 +12320,28 @@
         <v>21170</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" s="2">
-        <f xml:space="preserve"> (B45 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.37345679012345678</v>
       </c>
       <c r="I45">
-        <f xml:space="preserve"> (C45 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.40512820512820513</v>
       </c>
       <c r="J45" s="2">
-        <f xml:space="preserve"> (D45- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.6056622851365028E-2</v>
       </c>
       <c r="K45" s="5">
-        <f xml:space="preserve"> (E45- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.32303370786516855</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
         <v>1385.5</v>
@@ -12351,28 +12356,28 @@
         <v>21205</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" s="2">
-        <f xml:space="preserve"> (B46 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.37654320987654322</v>
       </c>
       <c r="I46">
-        <f xml:space="preserve"> (C46 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.41538461538461541</v>
       </c>
       <c r="J46" s="2">
-        <f xml:space="preserve"> (D46- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.10111223458038422</v>
       </c>
       <c r="K46" s="5">
-        <f xml:space="preserve"> (E46- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.32521847690387018</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
         <v>1387.7</v>
@@ -12387,28 +12392,28 @@
         <v>21140</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" s="2">
-        <f xml:space="preserve"> (B47 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.39012345679012372</v>
       </c>
       <c r="I47">
-        <f xml:space="preserve"> (C47 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.41538461538461541</v>
       </c>
       <c r="J47" s="2">
-        <f xml:space="preserve"> (D47- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.12841253791708801</v>
       </c>
       <c r="K47" s="5">
-        <f xml:space="preserve"> (E47- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.32116104868913858</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
         <v>1386</v>
@@ -12423,28 +12428,28 @@
         <v>21020</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="2">
-        <f xml:space="preserve"> (B48 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.37962962962962965</v>
       </c>
       <c r="I48">
-        <f xml:space="preserve"> (C48 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.40256410256410258</v>
       </c>
       <c r="J48" s="2">
-        <f xml:space="preserve"> (D48- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.12007077856420627</v>
       </c>
       <c r="K48" s="5">
-        <f xml:space="preserve"> (E48- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31367041198501872</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
         <v>1391</v>
@@ -12459,28 +12464,28 @@
         <v>20890</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" s="2">
-        <f xml:space="preserve"> (B49 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.41049382716049382</v>
       </c>
       <c r="I49">
-        <f xml:space="preserve"> (C49 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.38205128205128203</v>
       </c>
       <c r="J49" s="2">
-        <f xml:space="preserve"> (D49- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.19236602628918095</v>
       </c>
       <c r="K49" s="5">
-        <f xml:space="preserve"> (E49- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>1395</v>
@@ -12495,28 +12500,28 @@
         <v>20755</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" s="2">
-        <f xml:space="preserve"> (B50 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.43518518518518517</v>
       </c>
       <c r="I50">
-        <f xml:space="preserve"> (C50 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.37948717948717947</v>
       </c>
       <c r="J50" s="2">
-        <f xml:space="preserve"> (D50- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.9848331648129396E-2</v>
       </c>
       <c r="K50" s="5">
-        <f xml:space="preserve"> (E50- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.29712858926342073</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2">
         <v>1393</v>
@@ -12531,28 +12536,28 @@
         <v>20800</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" s="2">
-        <f xml:space="preserve"> (B51 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.4228395061728395</v>
       </c>
       <c r="I51">
-        <f xml:space="preserve"> (C51 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="J51" s="2">
-        <f xml:space="preserve"> (D51- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.8503538928210331E-2</v>
       </c>
       <c r="K51" s="5">
-        <f xml:space="preserve"> (E51- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.29993757802746568</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2">
         <v>1389</v>
@@ -12567,28 +12572,28 @@
         <v>20870</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H52" s="2">
-        <f xml:space="preserve"> (B52 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.39814814814814814</v>
       </c>
       <c r="I52">
-        <f xml:space="preserve"> (C52 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.38974358974358975</v>
       </c>
       <c r="J52" s="2">
-        <f xml:space="preserve"> (D52- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>8.1142568250758357E-2</v>
       </c>
       <c r="K52" s="5">
-        <f xml:space="preserve"> (E52- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.30430711610486894</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2">
         <v>1390</v>
@@ -12603,28 +12608,28 @@
         <v>20830</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H53" s="2">
-        <f xml:space="preserve"> (B53 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.40432098765432101</v>
       </c>
       <c r="I53">
-        <f xml:space="preserve"> (C53 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="J53" s="2">
-        <f xml:space="preserve"> (D53- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.7128412537917082E-2</v>
       </c>
       <c r="K53" s="5">
-        <f xml:space="preserve"> (E53- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.30181023720349565</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2">
         <v>1384.5</v>
@@ -12639,28 +12644,28 @@
         <v>20925</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H54" s="2">
-        <f xml:space="preserve"> (B54 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.37037037037037035</v>
       </c>
       <c r="I54">
-        <f xml:space="preserve"> (C54 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.38717948717948719</v>
       </c>
       <c r="J54" s="2">
-        <f xml:space="preserve"> (D54- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>5.4600606673407485E-2</v>
       </c>
       <c r="K54" s="5">
-        <f xml:space="preserve"> (E54- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.30774032459425715</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
         <v>1373.7</v>
@@ -12675,28 +12680,28 @@
         <v>20900</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H55" s="2">
-        <f xml:space="preserve"> (B55 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.30370370370370398</v>
       </c>
       <c r="I55">
-        <f xml:space="preserve"> (C55 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="J55" s="2">
-        <f xml:space="preserve"> (D55- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.6228513650151685E-2</v>
       </c>
       <c r="K55" s="5">
-        <f xml:space="preserve"> (E55- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.3061797752808989</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>1376.5</v>
@@ -12711,28 +12716,28 @@
         <v>21335</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56" s="2">
-        <f xml:space="preserve"> (B56 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.32098765432098764</v>
       </c>
       <c r="I56">
-        <f xml:space="preserve"> (C56 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="J56" s="2">
-        <f xml:space="preserve"> (D56- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>6.5722952477249741E-2</v>
       </c>
       <c r="K56" s="5">
-        <f xml:space="preserve"> (E56- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
         <v>1381.5</v>
@@ -12747,28 +12752,28 @@
         <v>21220</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H57" s="2">
-        <f xml:space="preserve"> (B57 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.35185185185185186</v>
       </c>
       <c r="I57">
-        <f xml:space="preserve"> (C57 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.41025641025641024</v>
       </c>
       <c r="J57" s="2">
-        <f xml:space="preserve"> (D57- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.4287158746208299E-2</v>
       </c>
       <c r="K57" s="5">
-        <f xml:space="preserve"> (E57- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.32615480649188516</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
         <v>1383.3</v>
@@ -12783,28 +12788,28 @@
         <v>21135</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H58" s="2">
-        <f xml:space="preserve"> (B58 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.36296296296296271</v>
       </c>
       <c r="I58">
-        <f xml:space="preserve"> (C58 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.40512820512820513</v>
       </c>
       <c r="J58" s="2">
-        <f xml:space="preserve"> (D58- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.8078867542972667E-2</v>
       </c>
       <c r="K58" s="5">
-        <f xml:space="preserve"> (E58- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.32084893882646692</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
         <v>1392.1</v>
@@ -12819,28 +12824,28 @@
         <v>21010</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H59" s="2">
-        <f xml:space="preserve"> (B59 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.41728395061728341</v>
       </c>
       <c r="I59">
-        <f xml:space="preserve"> (C59 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39743589743589741</v>
       </c>
       <c r="J59" s="2">
-        <f xml:space="preserve"> (D59- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.2012133468149654E-2</v>
       </c>
       <c r="K59" s="5">
-        <f xml:space="preserve"> (E59- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31304619225967539</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>1391.5</v>
@@ -12855,28 +12860,28 @@
         <v>20980</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H60" s="2">
-        <f xml:space="preserve"> (B60 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.41358024691358025</v>
       </c>
       <c r="I60">
-        <f xml:space="preserve"> (C60 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39743589743589741</v>
       </c>
       <c r="J60" s="2">
-        <f xml:space="preserve"> (D60- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.4792719919110202E-2</v>
       </c>
       <c r="K60" s="5">
-        <f xml:space="preserve"> (E60- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31117353308364543</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>1387</v>
@@ -12891,28 +12896,28 @@
         <v>20945</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H61" s="2">
-        <f xml:space="preserve"> (B61 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.38580246913580246</v>
       </c>
       <c r="I61">
-        <f xml:space="preserve"> (C61 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.38974358974358975</v>
       </c>
       <c r="J61" s="2">
-        <f xml:space="preserve"> (D61- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.1109706774519717</v>
       </c>
       <c r="K61" s="5">
-        <f xml:space="preserve"> (E61- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.3089887640449438</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>1387.5</v>
@@ -12927,28 +12932,28 @@
         <v>20985</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H62" s="2">
-        <f xml:space="preserve"> (B62 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="I62">
-        <f xml:space="preserve"> (C62 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39487179487179486</v>
       </c>
       <c r="J62" s="2">
-        <f xml:space="preserve"> (D62- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.1165318503538928</v>
       </c>
       <c r="K62" s="5">
-        <f xml:space="preserve"> (E62- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.31148564294631709</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>1383.2</v>
@@ -12963,28 +12968,28 @@
         <v>20955</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63" s="2">
-        <f xml:space="preserve"> (B63 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.36234567901234593</v>
       </c>
       <c r="I63">
-        <f xml:space="preserve"> (C63 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.39487179487179486</v>
       </c>
       <c r="J63" s="2">
-        <f xml:space="preserve"> (D63- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>0.11198179979777552</v>
       </c>
       <c r="K63" s="5">
-        <f xml:space="preserve"> (E63- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.30961298377028712</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
         <v>1379.2</v>
@@ -12999,28 +13004,28 @@
         <v>20790</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64" s="2">
-        <f xml:space="preserve"> (B64 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.33765432098765458</v>
       </c>
       <c r="I64">
-        <f xml:space="preserve"> (C64 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.37692307692307692</v>
       </c>
       <c r="J64" s="2">
-        <f xml:space="preserve"> (D64- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>9.1759352881698661E-2</v>
       </c>
       <c r="K64" s="5">
-        <f xml:space="preserve"> (E64- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.29931335830212236</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>1372.5</v>
@@ -13035,28 +13040,28 @@
         <v>20670</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H65" s="2">
-        <f xml:space="preserve"> (B65 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="4"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="I65">
-        <f xml:space="preserve"> (C65 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="1"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="J65" s="2">
-        <f xml:space="preserve"> (D65- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="2"/>
         <v>7.6086956521739121E-2</v>
       </c>
       <c r="K65" s="5">
-        <f xml:space="preserve"> (E65- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="3"/>
         <v>0.29182272159800249</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>1374.8</v>
@@ -13071,28 +13076,28 @@
         <v>20505</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H66" s="2">
-        <f xml:space="preserve"> (B66 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H66:H97" si="5" xml:space="preserve"> (B66 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.31049382716049356</v>
       </c>
       <c r="I66">
-        <f xml:space="preserve"> (C66 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" ref="I66:I129" si="6" xml:space="preserve"> (C66 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
         <v>0.35897435897435898</v>
       </c>
       <c r="J66" s="2">
-        <f xml:space="preserve"> (D66- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" ref="J66:J129" si="7" xml:space="preserve"> (D66- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
         <v>8.0131445904954496E-2</v>
       </c>
       <c r="K66" s="5">
-        <f xml:space="preserve"> (E66- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" ref="K66:K129" si="8" xml:space="preserve"> (E66- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
         <v>0.28152309612983772</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>1371.5</v>
@@ -13107,28 +13112,28 @@
         <v>20675</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H67" s="2">
-        <f xml:space="preserve"> (B67 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.29012345679012347</v>
       </c>
       <c r="I67">
-        <f xml:space="preserve"> (C67 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="J67" s="2">
-        <f xml:space="preserve"> (D67- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.10212335692618804</v>
       </c>
       <c r="K67" s="5">
-        <f xml:space="preserve"> (E67- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29213483146067415</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>1376</v>
@@ -13143,28 +13148,28 @@
         <v>20550</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H68" s="2">
-        <f xml:space="preserve"> (B68 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.31790123456790126</v>
       </c>
       <c r="I68">
-        <f xml:space="preserve"> (C68 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.35641025641025642</v>
       </c>
       <c r="J68" s="2">
-        <f xml:space="preserve"> (D68- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.12689585439838219</v>
       </c>
       <c r="K68" s="5">
-        <f xml:space="preserve"> (E68- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28433208489388262</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
         <v>1366.5</v>
@@ -13179,28 +13184,28 @@
         <v>20665</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H69" s="2">
-        <f xml:space="preserve"> (B69 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.25925925925925924</v>
       </c>
       <c r="I69">
-        <f xml:space="preserve"> (C69 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37179487179487181</v>
       </c>
       <c r="J69" s="2">
-        <f xml:space="preserve"> (D69- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.11905965621840243</v>
       </c>
       <c r="K69" s="5">
-        <f xml:space="preserve"> (E69- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29151061173533083</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
         <v>1363.5</v>
@@ -13215,28 +13220,28 @@
         <v>20715</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H70" s="2">
-        <f xml:space="preserve"> (B70 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.24074074074074073</v>
       </c>
       <c r="I70">
-        <f xml:space="preserve"> (C70 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37435897435897436</v>
       </c>
       <c r="J70" s="2">
-        <f xml:space="preserve"> (D70- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>9.1253791708796744E-2</v>
       </c>
       <c r="K70" s="5">
-        <f xml:space="preserve"> (E70- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29463171036204744</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>1356</v>
@@ -13251,28 +13256,28 @@
         <v>20565</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H71" s="2">
-        <f xml:space="preserve"> (B71 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.19444444444444445</v>
       </c>
       <c r="I71">
-        <f xml:space="preserve"> (C71 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="J71" s="2">
-        <f xml:space="preserve"> (D71- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>9.7826086956521757E-2</v>
       </c>
       <c r="K71" s="5">
-        <f xml:space="preserve"> (E71- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.2852684144818976</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
         <v>1358</v>
@@ -13287,28 +13292,28 @@
         <v>20490</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H72" s="2">
-        <f xml:space="preserve"> (B72 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.20679012345679013</v>
       </c>
       <c r="I72">
-        <f xml:space="preserve"> (C72 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.35128205128205126</v>
       </c>
       <c r="J72" s="2">
-        <f xml:space="preserve"> (D72- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.10262891809908996</v>
       </c>
       <c r="K72" s="5">
-        <f xml:space="preserve"> (E72- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28058676654182274</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
         <v>1354</v>
@@ -13323,28 +13328,28 @@
         <v>20100</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H73" s="2">
-        <f xml:space="preserve"> (B73 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.18209876543209877</v>
       </c>
       <c r="I73">
-        <f xml:space="preserve"> (C73 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.33846153846153848</v>
       </c>
       <c r="J73" s="2">
-        <f xml:space="preserve"> (D73- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.1001011122345804</v>
       </c>
       <c r="K73" s="5">
-        <f xml:space="preserve"> (E73- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.25624219725343322</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
         <v>1364</v>
@@ -13359,28 +13364,28 @@
         <v>20310</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H74" s="2">
-        <f xml:space="preserve"> (B74 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.24382716049382716</v>
       </c>
       <c r="I74">
-        <f xml:space="preserve"> (C74 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.34358974358974359</v>
       </c>
       <c r="J74" s="2">
-        <f xml:space="preserve"> (D74- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>8.9737108190091008E-2</v>
       </c>
       <c r="K74" s="5">
-        <f xml:space="preserve"> (E74- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.26935081148564294</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
         <v>1358.5</v>
@@ -13395,28 +13400,28 @@
         <v>20510</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H75" s="2">
-        <f xml:space="preserve"> (B75 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.20987654320987653</v>
       </c>
       <c r="I75">
-        <f xml:space="preserve"> (C75 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36153846153846153</v>
       </c>
       <c r="J75" s="2">
-        <f xml:space="preserve"> (D75- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>9.6562184024266931E-2</v>
       </c>
       <c r="K75" s="5">
-        <f xml:space="preserve"> (E75- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28183520599250939</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>1361</v>
@@ -13431,28 +13436,28 @@
         <v>20570</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H76" s="2">
-        <f xml:space="preserve"> (B76 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.22530864197530864</v>
       </c>
       <c r="I76">
-        <f xml:space="preserve"> (C76 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="J76" s="2">
-        <f xml:space="preserve"> (D76- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.10085945399393331</v>
       </c>
       <c r="K76" s="5">
-        <f xml:space="preserve"> (E76- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28558052434456926</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>1359</v>
@@ -13467,28 +13472,28 @@
         <v>20520</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H77" s="2">
-        <f xml:space="preserve"> (B77 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.21296296296296297</v>
       </c>
       <c r="I77">
-        <f xml:space="preserve"> (C77 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="J77" s="2">
-        <f xml:space="preserve"> (D77- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.11905965621840243</v>
       </c>
       <c r="K77" s="5">
-        <f xml:space="preserve"> (E77- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28245942571785271</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2">
         <v>1372.5</v>
@@ -13503,28 +13508,28 @@
         <v>21025</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H78" s="2">
-        <f xml:space="preserve"> (B78 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="I78">
-        <f xml:space="preserve"> (C78 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J78" s="2">
-        <f xml:space="preserve"> (D78- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.17846309403437813</v>
       </c>
       <c r="K78" s="5">
-        <f xml:space="preserve"> (E78- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.31398252184769038</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
         <v>1376.5</v>
@@ -13539,28 +13544,28 @@
         <v>20795</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H79" s="2">
-        <f xml:space="preserve"> (B79 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.32098765432098764</v>
       </c>
       <c r="I79">
-        <f xml:space="preserve"> (C79 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37948717948717947</v>
       </c>
       <c r="J79" s="2">
-        <f xml:space="preserve"> (D79- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.19843276036400406</v>
       </c>
       <c r="K79" s="5">
-        <f xml:space="preserve"> (E79- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29962546816479402</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2">
         <v>1377.8</v>
@@ -13575,28 +13580,28 @@
         <v>20960</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H80" s="2">
-        <f xml:space="preserve"> (B80 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.32901234567901205</v>
       </c>
       <c r="I80">
-        <f xml:space="preserve"> (C80 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.39743589743589741</v>
       </c>
       <c r="J80" s="2">
-        <f xml:space="preserve"> (D80- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.23761375126390297</v>
       </c>
       <c r="K80" s="5">
-        <f xml:space="preserve"> (E80- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30992509363295878</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2">
         <v>1374.5</v>
@@ -13611,28 +13616,28 @@
         <v>21050</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H81" s="2">
-        <f xml:space="preserve"> (B81 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.30864197530864196</v>
       </c>
       <c r="I81">
-        <f xml:space="preserve"> (C81 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.40256410256410258</v>
       </c>
       <c r="J81" s="2">
-        <f xml:space="preserve"> (D81- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.18629929221435795</v>
       </c>
       <c r="K81" s="5">
-        <f xml:space="preserve"> (E81- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.31554307116104868</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2">
         <v>1379.5</v>
@@ -13647,28 +13652,28 @@
         <v>20940</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H82" s="2">
-        <f xml:space="preserve"> (B82 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.33950617283950618</v>
       </c>
       <c r="I82">
-        <f xml:space="preserve"> (C82 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.38717948717948719</v>
       </c>
       <c r="J82" s="2">
-        <f xml:space="preserve"> (D82- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.22320525783619821</v>
       </c>
       <c r="K82" s="5">
-        <f xml:space="preserve"> (E82- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30867665418227214</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2">
         <v>1359</v>
@@ -13683,28 +13688,28 @@
         <v>21070</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H83" s="2">
-        <f xml:space="preserve"> (B83 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.21296296296296297</v>
       </c>
       <c r="I83">
-        <f xml:space="preserve"> (C83 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.40256410256410258</v>
       </c>
       <c r="J83" s="2">
-        <f xml:space="preserve"> (D83- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.16026289180990899</v>
       </c>
       <c r="K83" s="5">
-        <f xml:space="preserve"> (E83- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.31679151061173533</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
         <v>1368.5</v>
@@ -13719,28 +13724,28 @@
         <v>21225</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H84" s="2">
-        <f xml:space="preserve"> (B84 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.27160493827160492</v>
       </c>
       <c r="I84">
-        <f xml:space="preserve"> (C84 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.41025641025641024</v>
       </c>
       <c r="J84" s="2">
-        <f xml:space="preserve"> (D84- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.20348837209302326</v>
       </c>
       <c r="K84" s="5">
-        <f xml:space="preserve"> (E84- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.32646691635455682</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
         <v>1356.4</v>
@@ -13755,28 +13760,28 @@
         <v>20700</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H85" s="2">
-        <f xml:space="preserve"> (B85 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.19691358024691413</v>
       </c>
       <c r="I85">
-        <f xml:space="preserve"> (C85 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37692307692307692</v>
       </c>
       <c r="J85" s="2">
-        <f xml:space="preserve"> (D85- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.13270980788675429</v>
       </c>
       <c r="K85" s="5">
-        <f xml:space="preserve"> (E85- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29369538077403246</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
         <v>1370.5</v>
@@ -13791,28 +13796,28 @@
         <v>20670</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H86" s="2">
-        <f xml:space="preserve"> (B86 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.2839506172839506</v>
       </c>
       <c r="I86">
-        <f xml:space="preserve"> (C86 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37435897435897436</v>
       </c>
       <c r="J86" s="2">
-        <f xml:space="preserve"> (D86- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.11349848331648134</v>
       </c>
       <c r="K86" s="5">
-        <f xml:space="preserve"> (E86- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29182272159800249</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
         <v>1367.3</v>
@@ -13827,28 +13832,28 @@
         <v>20510</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H87" s="2">
-        <f xml:space="preserve"> (B87 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.26419753086419723</v>
       </c>
       <c r="I87">
-        <f xml:space="preserve"> (C87 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.35384615384615387</v>
       </c>
       <c r="J87" s="2">
-        <f xml:space="preserve"> (D87- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.1056622851365015</v>
       </c>
       <c r="K87" s="5">
-        <f xml:space="preserve"> (E87- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28183520599250939</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>1355.2</v>
@@ -13863,28 +13868,28 @@
         <v>20365</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H88" s="2">
-        <f xml:space="preserve"> (B88 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.18950617283950646</v>
       </c>
       <c r="I88">
-        <f xml:space="preserve"> (C88 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36410256410256409</v>
       </c>
       <c r="J88" s="2">
-        <f xml:space="preserve"> (D88- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.1109706774519717</v>
       </c>
       <c r="K88" s="5">
-        <f xml:space="preserve"> (E88- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.27278401997503121</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>1362.7</v>
@@ -13899,28 +13904,28 @@
         <v>20695</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H89" s="2">
-        <f xml:space="preserve"> (B89 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.23580246913580274</v>
       </c>
       <c r="I89">
-        <f xml:space="preserve"> (C89 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37435897435897436</v>
       </c>
       <c r="J89" s="2">
-        <f xml:space="preserve"> (D89- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.1443377148634985</v>
       </c>
       <c r="K89" s="5">
-        <f xml:space="preserve"> (E89- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29338327091136079</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
         <v>1363.5</v>
@@ -13935,28 +13940,28 @@
         <v>20770</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="2">
-        <f xml:space="preserve"> (B90 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.24074074074074073</v>
       </c>
       <c r="I90">
-        <f xml:space="preserve"> (C90 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.38205128205128203</v>
       </c>
       <c r="J90" s="2">
-        <f xml:space="preserve"> (D90- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.1223458038422649</v>
       </c>
       <c r="K90" s="5">
-        <f xml:space="preserve"> (E90- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29806491885143571</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
         <v>1379</v>
@@ -13971,28 +13976,28 @@
         <v>20740</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91" s="2">
-        <f xml:space="preserve"> (B91 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.33641975308641975</v>
       </c>
       <c r="I91">
-        <f xml:space="preserve"> (C91 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="J91" s="2">
-        <f xml:space="preserve"> (D91- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.14130434782608695</v>
       </c>
       <c r="K91" s="5">
-        <f xml:space="preserve"> (E91- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29619225967540574</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
         <v>1383.6</v>
@@ -14007,28 +14012,28 @@
         <v>20565</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H92" s="2">
-        <f xml:space="preserve"> (B92 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.36481481481481426</v>
       </c>
       <c r="I92">
-        <f xml:space="preserve"> (C92 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="J92" s="2">
-        <f xml:space="preserve"> (D92- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.14661274014155715</v>
       </c>
       <c r="K92" s="5">
-        <f xml:space="preserve"> (E92- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.2852684144818976</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
         <v>1372</v>
@@ -14043,28 +14048,28 @@
         <v>20410</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H93" s="2">
-        <f xml:space="preserve"> (B93 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.2932098765432099</v>
       </c>
       <c r="I93">
-        <f xml:space="preserve"> (C93 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.35641025641025642</v>
       </c>
       <c r="J93" s="2">
-        <f xml:space="preserve"> (D93- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.16203235591506571</v>
       </c>
       <c r="K93" s="5">
-        <f xml:space="preserve"> (E93- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.27559300873907616</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
         <v>1375</v>
@@ -14079,28 +14084,28 @@
         <v>20555</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H94" s="2">
-        <f xml:space="preserve"> (B94 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.31172839506172839</v>
       </c>
       <c r="I94">
-        <f xml:space="preserve"> (C94 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36153846153846153</v>
       </c>
       <c r="J94" s="2">
-        <f xml:space="preserve"> (D94- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.16531850353892819</v>
       </c>
       <c r="K94" s="5">
-        <f xml:space="preserve"> (E94- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28464419475655428</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
         <v>1376</v>
@@ -14115,28 +14120,28 @@
         <v>20605</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H95" s="2">
-        <f xml:space="preserve"> (B95 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.31790123456790126</v>
       </c>
       <c r="I95">
-        <f xml:space="preserve"> (C95 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="J95" s="2">
-        <f xml:space="preserve"> (D95- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.15647118301314461</v>
       </c>
       <c r="K95" s="5">
-        <f xml:space="preserve"> (E95- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28776529338327089</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
         <v>1370</v>
@@ -14151,28 +14156,28 @@
         <v>20700</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H96" s="2">
-        <f xml:space="preserve"> (B96 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.28086419753086422</v>
       </c>
       <c r="I96">
-        <f xml:space="preserve"> (C96 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37179487179487181</v>
       </c>
       <c r="J96" s="2">
-        <f xml:space="preserve"> (D96- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.19716885743174925</v>
       </c>
       <c r="K96" s="5">
-        <f xml:space="preserve"> (E96- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29369538077403246</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
         <v>1368</v>
@@ -14187,28 +14192,28 @@
         <v>20790</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H97" s="2">
-        <f xml:space="preserve"> (B97 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="5"/>
         <v>0.26851851851851855</v>
       </c>
       <c r="I97">
-        <f xml:space="preserve"> (C97 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37692307692307692</v>
       </c>
       <c r="J97" s="2">
-        <f xml:space="preserve"> (D97- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.24064711830131444</v>
       </c>
       <c r="K97" s="5">
-        <f xml:space="preserve"> (E97- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29931335830212236</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
         <v>1383</v>
@@ -14223,28 +14228,28 @@
         <v>20885</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H98" s="2">
-        <f xml:space="preserve"> (B98 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H98:H125" si="9" xml:space="preserve"> (B98 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.3611111111111111</v>
       </c>
       <c r="I98">
-        <f xml:space="preserve"> (C98 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.38717948717948719</v>
       </c>
       <c r="J98" s="2">
-        <f xml:space="preserve"> (D98- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.18983822042467141</v>
       </c>
       <c r="K98" s="5">
-        <f xml:space="preserve"> (E98- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30524344569288392</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
         <v>1377</v>
@@ -14259,28 +14264,28 @@
         <v>20815</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H99" s="2">
-        <f xml:space="preserve"> (B99 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.32407407407407407</v>
       </c>
       <c r="I99">
-        <f xml:space="preserve"> (C99 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.38205128205128203</v>
       </c>
       <c r="J99" s="2">
-        <f xml:space="preserve"> (D99- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.2047522750252781</v>
       </c>
       <c r="K99" s="5">
-        <f xml:space="preserve"> (E99- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30087390761548066</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
         <v>1394.8</v>
@@ -14295,28 +14300,28 @@
         <v>20355</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H100" s="2">
-        <f xml:space="preserve"> (B100 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.43395061728395035</v>
       </c>
       <c r="I100">
-        <f xml:space="preserve"> (C100 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.34358974358974359</v>
       </c>
       <c r="J100" s="2">
-        <f xml:space="preserve"> (D100- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.13447927199191101</v>
       </c>
       <c r="K100" s="5">
-        <f xml:space="preserve"> (E100- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.27215980024968789</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2">
         <v>1390.1</v>
@@ -14331,28 +14336,28 @@
         <v>20545</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H101" s="2">
-        <f xml:space="preserve"> (B101 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.40493827160493773</v>
       </c>
       <c r="I101">
-        <f xml:space="preserve"> (C101 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.35128205128205126</v>
       </c>
       <c r="J101" s="2">
-        <f xml:space="preserve"> (D101- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.13574317492416585</v>
       </c>
       <c r="K101" s="5">
-        <f xml:space="preserve"> (E101- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.28401997503121101</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2">
         <v>1399</v>
@@ -14367,28 +14372,28 @@
         <v>20335</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H102" s="2">
-        <f xml:space="preserve"> (B102 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.45987654320987653</v>
       </c>
       <c r="I102">
-        <f xml:space="preserve"> (C102 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.3487179487179487</v>
       </c>
       <c r="J102" s="2">
-        <f xml:space="preserve"> (D102- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.11299292214357934</v>
       </c>
       <c r="K102" s="5">
-        <f xml:space="preserve"> (E102- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.27091136079900124</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2">
         <v>1400</v>
@@ -14403,28 +14408,28 @@
         <v>19960</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H103" s="2">
-        <f xml:space="preserve"> (B103 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.4660493827160494</v>
       </c>
       <c r="I103">
-        <f xml:space="preserve"> (C103 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.3282051282051282</v>
       </c>
       <c r="J103" s="2">
-        <f xml:space="preserve"> (D103- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.127906976744186</v>
       </c>
       <c r="K103" s="5">
-        <f xml:space="preserve"> (E103- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.24750312109862671</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2">
         <v>1409</v>
@@ -14439,28 +14444,28 @@
         <v>20705</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H104" s="2">
-        <f xml:space="preserve"> (B104 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.52160493827160492</v>
       </c>
       <c r="I104">
-        <f xml:space="preserve"> (C104 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37692307692307692</v>
       </c>
       <c r="J104" s="2">
-        <f xml:space="preserve"> (D104- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.14787664307381196</v>
       </c>
       <c r="K104" s="5">
-        <f xml:space="preserve"> (E104- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.29400749063670412</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2">
         <v>1417.5</v>
@@ -14475,28 +14480,28 @@
         <v>20840</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H105" s="2">
-        <f xml:space="preserve"> (B105 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.57407407407407407</v>
       </c>
       <c r="I105">
-        <f xml:space="preserve"> (C105 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.38974358974358975</v>
       </c>
       <c r="J105" s="2">
-        <f xml:space="preserve"> (D105- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.13776541961577349</v>
       </c>
       <c r="K105" s="5">
-        <f xml:space="preserve"> (E105- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30243445692883897</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>1420.5</v>
@@ -14511,28 +14516,28 @@
         <v>20840</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H106" s="2">
-        <f xml:space="preserve"> (B106 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.59259259259259256</v>
       </c>
       <c r="I106">
-        <f xml:space="preserve"> (C106 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37435897435897436</v>
       </c>
       <c r="J106" s="2">
-        <f xml:space="preserve"> (D106- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.14206268958543986</v>
       </c>
       <c r="K106" s="5">
-        <f xml:space="preserve"> (E106- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30243445692883897</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2">
         <v>1399.5</v>
@@ -14547,28 +14552,28 @@
         <v>21115</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H107" s="2">
-        <f xml:space="preserve"> (B107 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.46296296296296297</v>
       </c>
       <c r="I107">
-        <f xml:space="preserve"> (C107 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J107" s="2">
-        <f xml:space="preserve"> (D107- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.23078867542972695</v>
       </c>
       <c r="K107" s="5">
-        <f xml:space="preserve"> (E107- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.31960049937578028</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
         <v>1405.3</v>
@@ -14583,28 +14588,28 @@
         <v>21275</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H108" s="2">
-        <f xml:space="preserve"> (B108 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.49876543209876517</v>
       </c>
       <c r="I108">
-        <f xml:space="preserve"> (C108 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.40256410256410258</v>
       </c>
       <c r="J108" s="2">
-        <f xml:space="preserve"> (D108- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.24544994944388271</v>
       </c>
       <c r="K108" s="5">
-        <f xml:space="preserve"> (E108- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.32958801498127338</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
         <v>1398.5</v>
@@ -14619,28 +14624,28 @@
         <v>21515</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H109" s="2">
-        <f xml:space="preserve"> (B109 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.4567901234567901</v>
       </c>
       <c r="I109">
-        <f xml:space="preserve"> (C109 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.42820512820512818</v>
       </c>
       <c r="J109" s="2">
-        <f xml:space="preserve"> (D109- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.2724974721941355</v>
       </c>
       <c r="K109" s="5">
-        <f xml:space="preserve"> (E109- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.34456928838951312</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
         <v>1382</v>
@@ -14655,28 +14660,28 @@
         <v>20965</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H110" s="2">
-        <f xml:space="preserve"> (B110 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.35493827160493829</v>
       </c>
       <c r="I110">
-        <f xml:space="preserve"> (C110 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="J110" s="2">
-        <f xml:space="preserve"> (D110- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.2505055611729019</v>
       </c>
       <c r="K110" s="5">
-        <f xml:space="preserve"> (E110- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.31023720349563044</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
         <v>1437.5</v>
@@ -14691,28 +14696,28 @@
         <v>21415</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H111" s="2">
-        <f xml:space="preserve"> (B111 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.69753086419753085</v>
       </c>
       <c r="I111">
-        <f xml:space="preserve"> (C111 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.4128205128205128</v>
       </c>
       <c r="J111" s="2">
-        <f xml:space="preserve"> (D111- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.30156723963599591</v>
       </c>
       <c r="K111" s="5">
-        <f xml:space="preserve"> (E111- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.33832709113607989</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
         <v>1434</v>
@@ -14727,28 +14732,28 @@
         <v>21540</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H112" s="2">
-        <f xml:space="preserve"> (B112 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.67592592592592593</v>
       </c>
       <c r="I112">
-        <f xml:space="preserve"> (C112 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.43076923076923079</v>
       </c>
       <c r="J112" s="2">
-        <f xml:space="preserve"> (D112- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.2881698685540951</v>
       </c>
       <c r="K112" s="5">
-        <f xml:space="preserve"> (E112- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.34612983770287142</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
         <v>1437</v>
@@ -14763,28 +14768,28 @@
         <v>21405</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H113" s="2">
-        <f xml:space="preserve"> (B113 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.69444444444444442</v>
       </c>
       <c r="I113">
-        <f xml:space="preserve"> (C113 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.43076923076923079</v>
       </c>
       <c r="J113" s="2">
-        <f xml:space="preserve"> (D113- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.31294236602628916</v>
       </c>
       <c r="K113" s="5">
-        <f xml:space="preserve"> (E113- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.33770287141073657</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
         <v>1439.5</v>
@@ -14799,28 +14804,28 @@
         <v>21485</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H114" s="2">
-        <f xml:space="preserve"> (B114 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.70987654320987659</v>
       </c>
       <c r="I114">
-        <f xml:space="preserve"> (C114 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.44102564102564101</v>
       </c>
       <c r="J114" s="2">
-        <f xml:space="preserve"> (D114- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.3051061678463094</v>
       </c>
       <c r="K114" s="5">
-        <f xml:space="preserve"> (E114- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.34269662921348315</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2">
         <v>1432</v>
@@ -14835,28 +14840,28 @@
         <v>21695</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H115" s="2">
-        <f xml:space="preserve"> (B115 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.6635802469135802</v>
       </c>
       <c r="I115">
-        <f xml:space="preserve"> (C115 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="J115" s="2">
-        <f xml:space="preserve"> (D115- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.34630940343781591</v>
       </c>
       <c r="K115" s="5">
-        <f xml:space="preserve"> (E115- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.35580524344569286</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2">
         <v>1427.5</v>
@@ -14871,28 +14876,28 @@
         <v>21390</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H116" s="2">
-        <f xml:space="preserve"> (B116 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.63580246913580252</v>
       </c>
       <c r="I116">
-        <f xml:space="preserve"> (C116 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.42820512820512818</v>
       </c>
       <c r="J116" s="2">
-        <f xml:space="preserve"> (D116- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.39635995955510611</v>
       </c>
       <c r="K116" s="5">
-        <f xml:space="preserve"> (E116- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.33676654182272159</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2">
         <v>1432.5</v>
@@ -14907,28 +14912,28 @@
         <v>22510</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H117" s="2">
-        <f xml:space="preserve"> (B117 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I117">
-        <f xml:space="preserve"> (C117 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.48974358974358972</v>
       </c>
       <c r="J117" s="2">
-        <f xml:space="preserve"> (D117- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.4499494438827098</v>
       </c>
       <c r="K117" s="5">
-        <f xml:space="preserve"> (E117- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.40667915106117353</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2">
         <v>1421.5</v>
@@ -14943,28 +14948,28 @@
         <v>21860</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H118" s="2">
-        <f xml:space="preserve"> (B118 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.59876543209876543</v>
       </c>
       <c r="I118">
-        <f xml:space="preserve"> (C118 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.44358974358974357</v>
       </c>
       <c r="J118" s="2">
-        <f xml:space="preserve"> (D118- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.53210313447927193</v>
       </c>
       <c r="K118" s="5">
-        <f xml:space="preserve"> (E118- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.36610486891385768</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2">
         <v>1419.5</v>
@@ -14979,28 +14984,28 @@
         <v>21440</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H119" s="2">
-        <f xml:space="preserve"> (B119 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.5864197530864198</v>
       </c>
       <c r="I119">
-        <f xml:space="preserve"> (C119 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.42051282051282052</v>
       </c>
       <c r="J119" s="2">
-        <f xml:space="preserve"> (D119- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.42669362992922139</v>
       </c>
       <c r="K119" s="5">
-        <f xml:space="preserve"> (E119- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.3398876404494382</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2">
         <v>1417</v>
@@ -15015,28 +15020,28 @@
         <v>21395</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H120" s="2">
-        <f xml:space="preserve"> (B120 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.57098765432098764</v>
       </c>
       <c r="I120">
-        <f xml:space="preserve"> (C120 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.40769230769230769</v>
       </c>
       <c r="J120" s="2">
-        <f xml:space="preserve"> (D120- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.50227502527805867</v>
       </c>
       <c r="K120" s="5">
-        <f xml:space="preserve"> (E120- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.33707865168539325</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2">
         <v>1428.5</v>
@@ -15051,28 +15056,28 @@
         <v>20855</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H121" s="2">
-        <f xml:space="preserve"> (B121 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.64197530864197527</v>
       </c>
       <c r="I121">
-        <f xml:space="preserve"> (C121 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37435897435897436</v>
       </c>
       <c r="J121" s="2">
-        <f xml:space="preserve"> (D121- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.4385743174924166</v>
       </c>
       <c r="K121" s="5">
-        <f xml:space="preserve"> (E121- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30337078651685395</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2">
         <v>1422</v>
@@ -15087,28 +15092,28 @@
         <v>20945</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H122" s="2">
-        <f xml:space="preserve"> (B122 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.60185185185185186</v>
       </c>
       <c r="I122">
-        <f xml:space="preserve"> (C122 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37435897435897436</v>
       </c>
       <c r="J122" s="2">
-        <f xml:space="preserve"> (D122- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.45803842264914052</v>
       </c>
       <c r="K122" s="5">
-        <f xml:space="preserve"> (E122- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.3089887640449438</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2">
         <v>1427.2</v>
@@ -15123,28 +15128,28 @@
         <v>20940</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H123" s="2">
-        <f xml:space="preserve"> (B123 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.63395061728395086</v>
       </c>
       <c r="I123">
-        <f xml:space="preserve"> (C123 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.38717948717948719</v>
       </c>
       <c r="J123" s="2">
-        <f xml:space="preserve"> (D123- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.62664307381193129</v>
       </c>
       <c r="K123" s="5">
-        <f xml:space="preserve"> (E123- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30867665418227214</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2">
         <v>1454</v>
@@ -15159,28 +15164,28 @@
         <v>20655</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H124" s="2">
-        <f xml:space="preserve"> (B124 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.79938271604938271</v>
       </c>
       <c r="I124">
-        <f xml:space="preserve"> (C124 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.36410256410256409</v>
       </c>
       <c r="J124" s="2">
-        <f xml:space="preserve"> (D124- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.7065217391304347</v>
       </c>
       <c r="K124" s="5">
-        <f xml:space="preserve"> (E124- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.2908863920099875</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2">
         <v>1454.5</v>
@@ -15195,28 +15200,28 @@
         <v>20365</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H125" s="2">
-        <f xml:space="preserve"> (B125 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="9"/>
         <v>0.80246913580246915</v>
       </c>
       <c r="I125">
-        <f xml:space="preserve"> (C125 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.33846153846153848</v>
       </c>
       <c r="J125" s="2">
-        <f xml:space="preserve"> (D125- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.52704752275025268</v>
       </c>
       <c r="K125" s="5">
-        <f xml:space="preserve"> (E125- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.27278401997503121</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2">
         <v>1486.5</v>
@@ -15231,28 +15236,28 @@
         <v>20175</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H126" s="2">
         <f>(B126-MIN($B$2:$B$250))/(MAX($B$2:$B$250)-MIN($B$2:$B$250))</f>
         <v>1</v>
       </c>
       <c r="I126">
-        <f xml:space="preserve"> (C126 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.32564102564102565</v>
       </c>
       <c r="J126" s="2">
-        <f xml:space="preserve"> (D126- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K126" s="5">
-        <f xml:space="preserve"> (E126- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.26092384519350814</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2">
         <v>1470.5</v>
@@ -15267,28 +15272,28 @@
         <v>20010</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H127" s="2">
-        <f xml:space="preserve"> (B127 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H127:H158" si="10" xml:space="preserve"> (B127 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.90123456790123457</v>
       </c>
       <c r="I127">
-        <f xml:space="preserve"> (C127 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.32051282051282054</v>
       </c>
       <c r="J127" s="2">
-        <f xml:space="preserve"> (D127- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.86476238624873591</v>
       </c>
       <c r="K127" s="5">
-        <f xml:space="preserve"> (E127- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.25062421972534332</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2">
         <v>1461.5</v>
@@ -15303,28 +15308,28 @@
         <v>20310</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H128" s="2">
-        <f xml:space="preserve"> (B128 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.84567901234567899</v>
       </c>
       <c r="I128">
-        <f xml:space="preserve"> (C128 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37692307692307692</v>
       </c>
       <c r="J128" s="2">
-        <f xml:space="preserve"> (D128- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.82254802831142582</v>
       </c>
       <c r="K128" s="5">
-        <f xml:space="preserve"> (E128- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.26935081148564294</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2">
         <v>1452.2</v>
@@ -15339,28 +15344,28 @@
         <v>20905</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H129" s="2">
-        <f xml:space="preserve"> (B129 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.78827160493827186</v>
       </c>
       <c r="I129">
-        <f xml:space="preserve"> (C129 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="6"/>
         <v>0.37692307692307692</v>
       </c>
       <c r="J129" s="2">
-        <f xml:space="preserve"> (D129- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="7"/>
         <v>0.43604651162790697</v>
       </c>
       <c r="K129" s="5">
-        <f xml:space="preserve"> (E129- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="8"/>
         <v>0.30649188514357056</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2">
         <v>1467.5</v>
@@ -15375,28 +15380,28 @@
         <v>20825</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H130" s="2">
-        <f xml:space="preserve"> (B130 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.88271604938271608</v>
       </c>
       <c r="I130">
-        <f xml:space="preserve"> (C130 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" ref="I130:I193" si="11" xml:space="preserve"> (C130 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
         <v>0.36666666666666664</v>
       </c>
       <c r="J130" s="2">
-        <f xml:space="preserve"> (D130- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" ref="J130:J193" si="12" xml:space="preserve"> (D130- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
         <v>0.22093023255813957</v>
       </c>
       <c r="K130" s="5">
-        <f xml:space="preserve"> (E130- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" ref="K130:K193" si="13" xml:space="preserve"> (E130- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
         <v>0.30149812734082398</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2">
         <v>1471.5</v>
@@ -15411,28 +15416,28 @@
         <v>21075</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H131" s="2">
-        <f xml:space="preserve"> (B131 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.90740740740740744</v>
       </c>
       <c r="I131">
-        <f xml:space="preserve"> (C131 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.37948717948717947</v>
       </c>
       <c r="J131" s="2">
-        <f xml:space="preserve"> (D131- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.2275025278058645</v>
       </c>
       <c r="K131" s="5">
-        <f xml:space="preserve"> (E131- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.31710362047440699</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2">
         <v>1474</v>
@@ -15447,28 +15452,28 @@
         <v>21105</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H132" s="2">
-        <f xml:space="preserve"> (B132 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.9228395061728395</v>
       </c>
       <c r="I132">
-        <f xml:space="preserve"> (C132 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.37179487179487181</v>
       </c>
       <c r="J132" s="2">
-        <f xml:space="preserve"> (D132- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.24039433771486352</v>
       </c>
       <c r="K132" s="5">
-        <f xml:space="preserve"> (E132- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.31897627965043696</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2">
         <v>1471</v>
@@ -15483,28 +15488,28 @@
         <v>20640</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H133" s="2">
-        <f xml:space="preserve"> (B133 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.90432098765432101</v>
       </c>
       <c r="I133">
-        <f xml:space="preserve"> (C133 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.34358974358974359</v>
       </c>
       <c r="J133" s="2">
-        <f xml:space="preserve"> (D133- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.22446916076845294</v>
       </c>
       <c r="K133" s="5">
-        <f xml:space="preserve"> (E133- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.28995006242197252</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2">
         <v>1466</v>
@@ -15519,28 +15524,28 @@
         <v>20310</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H134" s="2">
-        <f xml:space="preserve"> (B134 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.87345679012345678</v>
       </c>
       <c r="I134">
-        <f xml:space="preserve"> (C134 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.32564102564102565</v>
       </c>
       <c r="J134" s="2">
-        <f xml:space="preserve"> (D134- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.1496461071789687</v>
       </c>
       <c r="K134" s="5">
-        <f xml:space="preserve"> (E134- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.26935081148564294</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2">
         <v>1469</v>
@@ -15555,28 +15560,28 @@
         <v>20215</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H135" s="2">
-        <f xml:space="preserve"> (B135 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.89197530864197527</v>
       </c>
       <c r="I135">
-        <f xml:space="preserve"> (C135 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.32051282051282054</v>
       </c>
       <c r="J135" s="2">
-        <f xml:space="preserve"> (D135- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.14054600606673404</v>
       </c>
       <c r="K135" s="5">
-        <f xml:space="preserve"> (E135- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.26342072409488138</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2">
         <v>1464.6</v>
@@ -15591,28 +15596,28 @@
         <v>20185</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H136" s="2">
-        <f xml:space="preserve"> (B136 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.86481481481481426</v>
       </c>
       <c r="I136">
-        <f xml:space="preserve"> (C136 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.32051282051282054</v>
       </c>
       <c r="J136" s="2">
-        <f xml:space="preserve"> (D136- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.11071789686552069</v>
       </c>
       <c r="K136" s="5">
-        <f xml:space="preserve"> (E136- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.26154806491885141</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2">
         <v>1467.7</v>
@@ -15627,28 +15632,28 @@
         <v>20270</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H137" s="2">
-        <f xml:space="preserve"> (B137 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.88395061728395086</v>
       </c>
       <c r="I137">
-        <f xml:space="preserve"> (C137 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.32051282051282054</v>
       </c>
       <c r="J137" s="2">
-        <f xml:space="preserve"> (D137- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.11905965621840243</v>
       </c>
       <c r="K137" s="5">
-        <f xml:space="preserve"> (E137- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.26685393258426965</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2">
         <v>1465.5</v>
@@ -15663,28 +15668,28 @@
         <v>20350</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H138" s="2">
-        <f xml:space="preserve"> (B138 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.87037037037037035</v>
       </c>
       <c r="I138">
-        <f xml:space="preserve"> (C138 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.3282051282051282</v>
       </c>
       <c r="J138" s="2">
-        <f xml:space="preserve"> (D138- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.16456016177957536</v>
       </c>
       <c r="K138" s="5">
-        <f xml:space="preserve"> (E138- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.27184769038701623</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2">
         <v>1466.5</v>
@@ -15699,28 +15704,28 @@
         <v>20450</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H139" s="2">
-        <f xml:space="preserve"> (B139 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.87654320987654322</v>
       </c>
       <c r="I139">
-        <f xml:space="preserve"> (C139 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.32564102564102565</v>
       </c>
       <c r="J139" s="2">
-        <f xml:space="preserve"> (D139- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.1777047522750253</v>
       </c>
       <c r="K139" s="5">
-        <f xml:space="preserve"> (E139- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.27808988764044945</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2">
         <v>1458.3</v>
@@ -15735,28 +15740,28 @@
         <v>20370</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H140" s="2">
-        <f xml:space="preserve"> (B140 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.82592592592592562</v>
       </c>
       <c r="I140">
-        <f xml:space="preserve"> (C140 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.31025641025641026</v>
       </c>
       <c r="J140" s="2">
-        <f xml:space="preserve"> (D140- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.18023255813953484</v>
       </c>
       <c r="K140" s="5">
-        <f xml:space="preserve"> (E140- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.27309612983770287</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2">
         <v>1451.8</v>
@@ -15771,28 +15776,28 @@
         <v>20175</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H141" s="2">
-        <f xml:space="preserve"> (B141 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.78580246913580221</v>
       </c>
       <c r="I141">
-        <f xml:space="preserve"> (C141 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="J141" s="2">
-        <f xml:space="preserve"> (D141- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.22573306370070775</v>
       </c>
       <c r="K141" s="5">
-        <f xml:space="preserve"> (E141- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.26092384519350814</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2">
         <v>1445</v>
@@ -15807,28 +15812,28 @@
         <v>19900</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H142" s="2">
-        <f xml:space="preserve"> (B142 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.74382716049382713</v>
       </c>
       <c r="I142">
-        <f xml:space="preserve"> (C142 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.28717948717948716</v>
       </c>
       <c r="J142" s="2">
-        <f xml:space="preserve"> (D142- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.19565217391304351</v>
       </c>
       <c r="K142" s="5">
-        <f xml:space="preserve"> (E142- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.2437578027465668</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2">
         <v>1454.5</v>
@@ -15843,28 +15848,28 @@
         <v>20010</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H143" s="2">
-        <f xml:space="preserve"> (B143 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.80246913580246915</v>
       </c>
       <c r="I143">
-        <f xml:space="preserve"> (C143 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.29230769230769232</v>
       </c>
       <c r="J143" s="2">
-        <f xml:space="preserve"> (D143- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.2275025278058645</v>
       </c>
       <c r="K143" s="5">
-        <f xml:space="preserve"> (E143- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.25062421972534332</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2">
         <v>1455</v>
@@ -15879,28 +15884,28 @@
         <v>19730</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H144" s="2">
-        <f xml:space="preserve"> (B144 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.80555555555555558</v>
       </c>
       <c r="I144">
-        <f xml:space="preserve"> (C144 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.27435897435897438</v>
       </c>
       <c r="J144" s="2">
-        <f xml:space="preserve"> (D144- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.3005561172901921</v>
       </c>
       <c r="K144" s="5">
-        <f xml:space="preserve"> (E144- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.23314606741573032</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2">
         <v>1452</v>
@@ -15915,28 +15920,28 @@
         <v>19660</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H145" s="2">
-        <f xml:space="preserve"> (B145 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.78703703703703709</v>
       </c>
       <c r="I145">
-        <f xml:space="preserve"> (C145 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.26410256410256411</v>
       </c>
       <c r="J145" s="2">
-        <f xml:space="preserve"> (D145- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.28968655207280081</v>
       </c>
       <c r="K145" s="5">
-        <f xml:space="preserve"> (E145- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.22877652933832709</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2">
         <v>1453</v>
@@ -15951,28 +15956,28 @@
         <v>19690</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H146" s="2">
-        <f xml:space="preserve"> (B146 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.79320987654320985</v>
       </c>
       <c r="I146">
-        <f xml:space="preserve"> (C146 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.26153846153846155</v>
       </c>
       <c r="J146" s="2">
-        <f xml:space="preserve"> (D146- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.35768452982810922</v>
       </c>
       <c r="K146" s="5">
-        <f xml:space="preserve"> (E146- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.23064918851435706</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2">
         <v>1459</v>
@@ -15987,28 +15992,28 @@
         <v>19775</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H147" s="2">
-        <f xml:space="preserve"> (B147 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.83024691358024694</v>
       </c>
       <c r="I147">
-        <f xml:space="preserve"> (C147 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.26410256410256411</v>
       </c>
       <c r="J147" s="2">
-        <f xml:space="preserve"> (D147- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.38144590495449948</v>
       </c>
       <c r="K147" s="5">
-        <f xml:space="preserve"> (E147- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.23595505617977527</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2">
         <v>1449.8</v>
@@ -16023,28 +16028,28 @@
         <v>19855</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H148" s="2">
-        <f xml:space="preserve"> (B148 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.77345679012345647</v>
       </c>
       <c r="I148">
-        <f xml:space="preserve"> (C148 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.26153846153846155</v>
       </c>
       <c r="J148" s="2">
-        <f xml:space="preserve"> (D148- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.26794742163801821</v>
       </c>
       <c r="K148" s="5">
-        <f xml:space="preserve"> (E148- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.24094881398252185</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2">
         <v>1448.5</v>
@@ -16059,28 +16064,28 @@
         <v>20255</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H149" s="2">
-        <f xml:space="preserve"> (B149 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.76543209876543206</v>
       </c>
       <c r="I149">
-        <f xml:space="preserve"> (C149 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.26410256410256411</v>
       </c>
       <c r="J149" s="2">
-        <f xml:space="preserve"> (D149- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.3058645096056623</v>
       </c>
       <c r="K149" s="5">
-        <f xml:space="preserve"> (E149- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.26591760299625467</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2">
         <v>1446</v>
@@ -16095,28 +16100,28 @@
         <v>20395</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H150" s="2">
-        <f xml:space="preserve"> (B150 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="I150">
-        <f xml:space="preserve"> (C150 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.27948717948717949</v>
       </c>
       <c r="J150" s="2">
-        <f xml:space="preserve"> (D150- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.23154701718907986</v>
       </c>
       <c r="K150" s="5">
-        <f xml:space="preserve"> (E150- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.27465667915106118</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2">
         <v>1455.5</v>
@@ -16131,28 +16136,28 @@
         <v>20225</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H151" s="2">
-        <f xml:space="preserve"> (B151 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.80864197530864201</v>
       </c>
       <c r="I151">
-        <f xml:space="preserve"> (C151 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.27948717948717949</v>
       </c>
       <c r="J151" s="2">
-        <f xml:space="preserve"> (D151- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.2714863498483317</v>
       </c>
       <c r="K151" s="5">
-        <f xml:space="preserve"> (E151- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.2640449438202247</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2">
         <v>1462</v>
@@ -16167,28 +16172,28 @@
         <v>19815</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H152" s="2">
-        <f xml:space="preserve"> (B152 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.84876543209876543</v>
       </c>
       <c r="I152">
-        <f xml:space="preserve"> (C152 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.258974358974359</v>
       </c>
       <c r="J152" s="2">
-        <f xml:space="preserve"> (D152- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.17340748230535893</v>
       </c>
       <c r="K152" s="5">
-        <f xml:space="preserve"> (E152- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.23845193508114856</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2">
         <v>1449.5</v>
@@ -16203,28 +16208,28 @@
         <v>19620</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H153" s="2">
-        <f xml:space="preserve"> (B153 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.77160493827160492</v>
       </c>
       <c r="I153">
-        <f xml:space="preserve"> (C153 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.26410256410256411</v>
       </c>
       <c r="J153" s="2">
-        <f xml:space="preserve"> (D153- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.211324570273003</v>
       </c>
       <c r="K153" s="5">
-        <f xml:space="preserve"> (E153- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.22627965043695381</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" s="2">
         <v>1435.5</v>
@@ -16239,28 +16244,28 @@
         <v>19935</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H154" s="2">
-        <f xml:space="preserve"> (B154 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.68518518518518523</v>
       </c>
       <c r="I154">
-        <f xml:space="preserve"> (C154 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.27179487179487177</v>
       </c>
       <c r="J154" s="2">
-        <f xml:space="preserve"> (D154- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.16001011122345807</v>
       </c>
       <c r="K154" s="5">
-        <f xml:space="preserve"> (E154- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.2459425717852684</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" s="2">
         <v>1432.8</v>
@@ -16275,28 +16280,28 @@
         <v>20625</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H155" s="2">
-        <f xml:space="preserve"> (B155 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.66851851851851829</v>
       </c>
       <c r="I155">
-        <f xml:space="preserve"> (C155 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.27948717948717949</v>
       </c>
       <c r="J155" s="2">
-        <f xml:space="preserve"> (D155- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.16835187057633974</v>
       </c>
       <c r="K155" s="5">
-        <f xml:space="preserve"> (E155- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.28901373283395754</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="2">
         <v>1430.2</v>
@@ -16311,28 +16316,28 @@
         <v>20655</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H156" s="2">
-        <f xml:space="preserve"> (B156 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.65246913580246946</v>
       </c>
       <c r="I156">
-        <f xml:space="preserve"> (C156 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.28717948717948716</v>
       </c>
       <c r="J156" s="2">
-        <f xml:space="preserve"> (D156- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.15697674418604651</v>
       </c>
       <c r="K156" s="5">
-        <f xml:space="preserve"> (E156- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.2908863920099875</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2">
         <v>1438.3</v>
@@ -16347,28 +16352,28 @@
         <v>20785</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H157" s="2">
-        <f xml:space="preserve"> (B157 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.70246913580246884</v>
       </c>
       <c r="I157">
-        <f xml:space="preserve"> (C157 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.28717948717948716</v>
       </c>
       <c r="J157" s="2">
-        <f xml:space="preserve"> (D157- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.13751263902932256</v>
       </c>
       <c r="K157" s="5">
-        <f xml:space="preserve"> (E157- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.2990012484394507</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="2">
         <v>1434.7</v>
@@ -16383,28 +16388,28 @@
         <v>20730</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H158" s="2">
-        <f xml:space="preserve"> (B158 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="10"/>
         <v>0.68024691358024725</v>
       </c>
       <c r="I158">
-        <f xml:space="preserve"> (C158 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.32307692307692309</v>
       </c>
       <c r="J158" s="2">
-        <f xml:space="preserve"> (D158- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>7.3053589484327608E-2</v>
       </c>
       <c r="K158" s="5">
-        <f xml:space="preserve"> (E158- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.29556803995006242</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="2">
         <v>1443.5</v>
@@ -16419,28 +16424,28 @@
         <v>21025</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H159" s="2">
-        <f xml:space="preserve"> (B159 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H159:H190" si="14" xml:space="preserve"> (B159 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.73456790123456794</v>
       </c>
       <c r="I159">
-        <f xml:space="preserve"> (C159 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.33589743589743587</v>
       </c>
       <c r="J159" s="2">
-        <f xml:space="preserve"> (D159- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>6.3195146612740144E-2</v>
       </c>
       <c r="K159" s="5">
-        <f xml:space="preserve"> (E159- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.31398252184769038</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="2">
         <v>1442.5</v>
@@ -16455,28 +16460,28 @@
         <v>21600</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H160" s="2">
-        <f xml:space="preserve"> (B160 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.72839506172839508</v>
       </c>
       <c r="I160">
-        <f xml:space="preserve"> (C160 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.34615384615384615</v>
       </c>
       <c r="J160" s="2">
-        <f xml:space="preserve"> (D160- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="K160" s="5">
-        <f xml:space="preserve"> (E160- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.34987515605493136</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2">
         <v>1443</v>
@@ -16491,28 +16496,28 @@
         <v>22550</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H161" s="2">
-        <f xml:space="preserve"> (B161 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.73148148148148151</v>
       </c>
       <c r="I161">
-        <f xml:space="preserve"> (C161 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.36923076923076925</v>
       </c>
       <c r="J161" s="2">
-        <f xml:space="preserve"> (D161- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>6.5722952477249741E-2</v>
       </c>
       <c r="K161" s="5">
-        <f xml:space="preserve"> (E161- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.40917602996254682</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" s="2">
         <v>1443.8</v>
@@ -16527,28 +16532,28 @@
         <v>23370</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H162" s="2">
-        <f xml:space="preserve"> (B162 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.73641975308641949</v>
       </c>
       <c r="I162">
-        <f xml:space="preserve"> (C162 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.34615384615384615</v>
       </c>
       <c r="J162" s="2">
-        <f xml:space="preserve"> (D162- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>5.0556117290192111E-2</v>
       </c>
       <c r="K162" s="5">
-        <f xml:space="preserve"> (E162- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.46036204744069914</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2">
         <v>1443</v>
@@ -16563,28 +16568,28 @@
         <v>23100</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H163" s="2">
-        <f xml:space="preserve"> (B163 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.73148148148148151</v>
       </c>
       <c r="I163">
-        <f xml:space="preserve"> (C163 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.30512820512820515</v>
       </c>
       <c r="J163" s="2">
-        <f xml:space="preserve"> (D163- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>5.8897876643073811E-2</v>
       </c>
       <c r="K163" s="5">
-        <f xml:space="preserve"> (E163- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.44350811485642944</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="2">
         <v>1453.5</v>
@@ -16599,28 +16604,28 @@
         <v>22605</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H164" s="2">
-        <f xml:space="preserve"> (B164 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.79629629629629628</v>
       </c>
       <c r="I164">
-        <f xml:space="preserve"> (C164 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.29487179487179488</v>
       </c>
       <c r="J164" s="2">
-        <f xml:space="preserve"> (D164- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>7.8867542972699711E-2</v>
       </c>
       <c r="K164" s="5">
-        <f xml:space="preserve"> (E164- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.41260923845193509</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="2">
         <v>1452.5</v>
@@ -16635,28 +16640,28 @@
         <v>22795</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H165" s="2">
-        <f xml:space="preserve"> (B165 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.79012345679012341</v>
       </c>
       <c r="I165">
-        <f xml:space="preserve"> (C165 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.32051282051282054</v>
       </c>
       <c r="J165" s="2">
-        <f xml:space="preserve"> (D165- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>8.2153690596562176E-2</v>
       </c>
       <c r="K165" s="5">
-        <f xml:space="preserve"> (E165- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.42446941323345816</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" s="2">
         <v>1452.2</v>
@@ -16671,28 +16676,28 @@
         <v>21810</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H166" s="2">
-        <f xml:space="preserve"> (B166 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.78827160493827186</v>
       </c>
       <c r="I166">
-        <f xml:space="preserve"> (C166 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="J166" s="2">
-        <f xml:space="preserve"> (D166- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>7.6845298281092031E-2</v>
       </c>
       <c r="K166" s="5">
-        <f xml:space="preserve"> (E166- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.36298377028714107</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="2">
         <v>1457.8</v>
@@ -16707,28 +16712,28 @@
         <v>20765</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H167" s="2">
-        <f xml:space="preserve"> (B167 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.82283950617283919</v>
       </c>
       <c r="I167">
-        <f xml:space="preserve"> (C167 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.28205128205128205</v>
       </c>
       <c r="J167" s="2">
-        <f xml:space="preserve"> (D167- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>9.5298281092012119E-2</v>
       </c>
       <c r="K167" s="5">
-        <f xml:space="preserve"> (E167- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.29775280898876405</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" s="2">
         <v>1447</v>
@@ -16743,28 +16748,28 @@
         <v>20880</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H168" s="2">
-        <f xml:space="preserve"> (B168 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.75617283950617287</v>
       </c>
       <c r="I168">
-        <f xml:space="preserve"> (C168 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.27948717948717949</v>
       </c>
       <c r="J168" s="2">
-        <f xml:space="preserve"> (D168- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>6.9009100101112247E-2</v>
       </c>
       <c r="K168" s="5">
-        <f xml:space="preserve"> (E168- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.30493133583021226</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2">
         <v>1445.5</v>
@@ -16779,28 +16784,28 @@
         <v>21300</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H169" s="2">
-        <f xml:space="preserve"> (B169 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.74691358024691357</v>
       </c>
       <c r="I169">
-        <f xml:space="preserve"> (C169 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.25384615384615383</v>
       </c>
       <c r="J169" s="2">
-        <f xml:space="preserve"> (D169- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>7.583417593528817E-2</v>
       </c>
       <c r="K169" s="5">
-        <f xml:space="preserve"> (E169- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.33114856429463169</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="2">
         <v>1453.5</v>
@@ -16815,28 +16820,28 @@
         <v>20210</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H170" s="2">
-        <f xml:space="preserve"> (B170 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.79629629629629628</v>
       </c>
       <c r="I170">
-        <f xml:space="preserve"> (C170 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.22564102564102564</v>
       </c>
       <c r="J170" s="2">
-        <f xml:space="preserve"> (D170- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.11223458038422651</v>
       </c>
       <c r="K170" s="5">
-        <f xml:space="preserve"> (E170- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.26310861423220971</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" s="2">
         <v>1458</v>
@@ -16851,28 +16856,28 @@
         <v>19685</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H171" s="2">
-        <f xml:space="preserve"> (B171 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.82407407407407407</v>
       </c>
       <c r="I171">
-        <f xml:space="preserve"> (C171 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
       <c r="J171" s="2">
-        <f xml:space="preserve"> (D171- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.14787664307381196</v>
       </c>
       <c r="K171" s="5">
-        <f xml:space="preserve"> (E171- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.2303370786516854</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172" s="2">
         <v>1459</v>
@@ -16887,28 +16892,28 @@
         <v>18975</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H172" s="2">
-        <f xml:space="preserve"> (B172 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.83024691358024694</v>
       </c>
       <c r="I172">
-        <f xml:space="preserve"> (C172 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="J172" s="2">
-        <f xml:space="preserve"> (D172- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>9.251769464105157E-2</v>
       </c>
       <c r="K172" s="5">
-        <f xml:space="preserve"> (E172- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.18601747815230962</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173" s="2">
         <v>1446</v>
@@ -16923,28 +16928,28 @@
         <v>18545</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H173" s="2">
-        <f xml:space="preserve"> (B173 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="I173">
-        <f xml:space="preserve"> (C173 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.1717948717948718</v>
       </c>
       <c r="J173" s="2">
-        <f xml:space="preserve"> (D173- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>5.2578361981799798E-2</v>
       </c>
       <c r="K173" s="5">
-        <f xml:space="preserve"> (E173- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.15917602996254682</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B174" s="2">
         <v>1436.5</v>
@@ -16959,28 +16964,28 @@
         <v>18495</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H174" s="2">
-        <f xml:space="preserve"> (B174 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.69135802469135799</v>
       </c>
       <c r="I174">
-        <f xml:space="preserve"> (C174 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.15641025641025641</v>
       </c>
       <c r="J174" s="2">
-        <f xml:space="preserve"> (D174- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>5.6875631951466124E-2</v>
       </c>
       <c r="K174" s="5">
-        <f xml:space="preserve"> (E174- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.1560549313358302</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175" s="2">
         <v>1437</v>
@@ -16995,28 +17000,28 @@
         <v>18515</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H175" s="2">
-        <f xml:space="preserve"> (B175 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.69444444444444442</v>
       </c>
       <c r="I175">
-        <f xml:space="preserve"> (C175 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.15897435897435896</v>
       </c>
       <c r="J175" s="2">
-        <f xml:space="preserve"> (D175- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>5.8897876643073811E-2</v>
       </c>
       <c r="K175" s="5">
-        <f xml:space="preserve"> (E175- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.15730337078651685</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" s="2">
         <v>1436.5</v>
@@ -17031,28 +17036,28 @@
         <v>18400</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H176" s="2">
-        <f xml:space="preserve"> (B176 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.69135802469135799</v>
       </c>
       <c r="I176">
-        <f xml:space="preserve"> (C176 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.14358974358974358</v>
       </c>
       <c r="J176" s="2">
-        <f xml:space="preserve"> (D176- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>5.7886754297269992E-2</v>
       </c>
       <c r="K176" s="5">
-        <f xml:space="preserve"> (E176- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.15012484394506867</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177" s="2">
         <v>1441</v>
@@ -17067,28 +17072,28 @@
         <v>18310</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H177" s="2">
-        <f xml:space="preserve"> (B177 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.71913580246913578</v>
       </c>
       <c r="I177">
-        <f xml:space="preserve"> (C177 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.14615384615384616</v>
       </c>
       <c r="J177" s="2">
-        <f xml:space="preserve"> (D177- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>7.6845298281092031E-2</v>
       </c>
       <c r="K177" s="5">
-        <f xml:space="preserve"> (E177- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14450686641697877</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178" s="2">
         <v>1459.5</v>
@@ -17103,28 +17108,28 @@
         <v>18345</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H178" s="2">
-        <f xml:space="preserve"> (B178 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I178">
-        <f xml:space="preserve"> (C178 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="J178" s="2">
-        <f xml:space="preserve"> (D178- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>8.0889787664307405E-2</v>
       </c>
       <c r="K178" s="5">
-        <f xml:space="preserve"> (E178- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.1466916354556804</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" s="2">
         <v>1457.5</v>
@@ -17139,28 +17144,28 @@
         <v>18330</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H179" s="2">
-        <f xml:space="preserve"> (B179 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.82098765432098764</v>
       </c>
       <c r="I179">
-        <f xml:space="preserve"> (C179 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.14615384615384616</v>
       </c>
       <c r="J179" s="2">
-        <f xml:space="preserve"> (D179- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>9.6814964610717938E-2</v>
       </c>
       <c r="K179" s="5">
-        <f xml:space="preserve"> (E179- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14575530586766541</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" s="2">
         <v>1456</v>
@@ -17175,28 +17180,28 @@
         <v>18395</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H180" s="2">
-        <f xml:space="preserve"> (B180 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.81172839506172845</v>
       </c>
       <c r="I180">
-        <f xml:space="preserve"> (C180 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.14102564102564102</v>
       </c>
       <c r="J180" s="2">
-        <f xml:space="preserve"> (D180- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>8.4681496461071815E-2</v>
       </c>
       <c r="K180" s="5">
-        <f xml:space="preserve"> (E180- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14981273408239701</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" s="2">
         <v>1461</v>
@@ -17211,28 +17216,28 @@
         <v>18460</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H181" s="2">
-        <f xml:space="preserve"> (B181 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.84259259259259256</v>
       </c>
       <c r="I181">
-        <f xml:space="preserve"> (C181 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.14358974358974358</v>
       </c>
       <c r="J181" s="2">
-        <f xml:space="preserve"> (D181- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.1501516683518706</v>
       </c>
       <c r="K181" s="5">
-        <f xml:space="preserve"> (E181- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.15387016229712858</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182" s="2">
         <v>1468</v>
@@ -17247,28 +17252,28 @@
         <v>18570</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H182" s="2">
-        <f xml:space="preserve"> (B182 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.88580246913580252</v>
       </c>
       <c r="I182">
-        <f xml:space="preserve"> (C182 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="J182" s="2">
-        <f xml:space="preserve"> (D182- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.16228513650151671</v>
       </c>
       <c r="K182" s="5">
-        <f xml:space="preserve"> (E182- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.16073657927590512</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" s="2">
         <v>1474.8</v>
@@ -17283,28 +17288,28 @@
         <v>18395</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H183" s="2">
-        <f xml:space="preserve"> (B183 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.92777777777777748</v>
       </c>
       <c r="I183">
-        <f xml:space="preserve"> (C183 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.14358974358974358</v>
       </c>
       <c r="J183" s="2">
-        <f xml:space="preserve"> (D183- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.17113245702730029</v>
       </c>
       <c r="K183" s="5">
-        <f xml:space="preserve"> (E183- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14981273408239701</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" s="2">
         <v>1460.7</v>
@@ -17319,28 +17324,28 @@
         <v>18270</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H184" s="2">
-        <f xml:space="preserve"> (B184 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.84074074074074101</v>
       </c>
       <c r="I184">
-        <f xml:space="preserve"> (C184 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.13589743589743589</v>
       </c>
       <c r="J184" s="2">
-        <f xml:space="preserve"> (D184- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.13397371081900911</v>
       </c>
       <c r="K184" s="5">
-        <f xml:space="preserve"> (E184- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14200998751560551</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B185" s="2">
         <v>1461</v>
@@ -17355,28 +17360,28 @@
         <v>18125</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H185" s="2">
-        <f xml:space="preserve"> (B185 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.84259259259259256</v>
       </c>
       <c r="I185">
-        <f xml:space="preserve"> (C185 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.12564102564102564</v>
       </c>
       <c r="J185" s="2">
-        <f xml:space="preserve"> (D185- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.12462082912032355</v>
       </c>
       <c r="K185" s="5">
-        <f xml:space="preserve"> (E185- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.13295880149812733</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186" s="2">
         <v>1454.5</v>
@@ -17391,28 +17396,28 @@
         <v>18095</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H186" s="2">
-        <f xml:space="preserve"> (B186 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.80246913580246915</v>
       </c>
       <c r="I186">
-        <f xml:space="preserve"> (C186 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.12307692307692308</v>
       </c>
       <c r="J186" s="2">
-        <f xml:space="preserve"> (D186- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.1276541961577351</v>
       </c>
       <c r="K186" s="5">
-        <f xml:space="preserve"> (E186- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.13108614232209737</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" s="2">
         <v>1462.9</v>
@@ -17427,28 +17432,28 @@
         <v>18295</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H187" s="2">
-        <f xml:space="preserve"> (B187 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.85432098765432152</v>
       </c>
       <c r="I187">
-        <f xml:space="preserve"> (C187 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.13589743589743589</v>
       </c>
       <c r="J187" s="2">
-        <f xml:space="preserve"> (D187- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>8.2659251769464093E-2</v>
       </c>
       <c r="K187" s="5">
-        <f xml:space="preserve"> (E187- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14357053682896379</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" s="2">
         <v>1471</v>
@@ -17463,28 +17468,28 @@
         <v>18305</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H188" s="2">
-        <f xml:space="preserve"> (B188 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.90432098765432101</v>
       </c>
       <c r="I188">
-        <f xml:space="preserve"> (C188 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.13846153846153847</v>
       </c>
       <c r="J188" s="2">
-        <f xml:space="preserve"> (D188- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>8.4934277047522724E-2</v>
       </c>
       <c r="K188" s="5">
-        <f xml:space="preserve"> (E188- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14419475655430711</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B189" s="2">
         <v>1471.5</v>
@@ -17499,28 +17504,28 @@
         <v>18310</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H189" s="2">
-        <f xml:space="preserve"> (B189 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.90740740740740744</v>
       </c>
       <c r="I189">
-        <f xml:space="preserve"> (C189 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="J189" s="2">
-        <f xml:space="preserve"> (D189- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.13043478260869565</v>
       </c>
       <c r="K189" s="5">
-        <f xml:space="preserve"> (E189- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.14450686641697877</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B190" s="2">
         <v>1471.8</v>
@@ -17535,28 +17540,28 @@
         <v>18155</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H190" s="2">
-        <f xml:space="preserve"> (B190 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="14"/>
         <v>0.90925925925925899</v>
       </c>
       <c r="I190">
-        <f xml:space="preserve"> (C190 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.12820512820512819</v>
       </c>
       <c r="J190" s="2">
-        <f xml:space="preserve"> (D190- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>0.11703741152679471</v>
       </c>
       <c r="K190" s="5">
-        <f xml:space="preserve"> (E190- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.1348314606741573</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B191" s="2">
         <v>1476</v>
@@ -17571,28 +17576,28 @@
         <v>17985</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H191" s="2">
-        <f xml:space="preserve"> (B191 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H191:H222" si="15" xml:space="preserve"> (B191 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.93518518518518523</v>
       </c>
       <c r="I191">
-        <f xml:space="preserve"> (C191 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.13589743589743589</v>
       </c>
       <c r="J191" s="2">
-        <f xml:space="preserve"> (D191- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>8.0384226491405447E-2</v>
       </c>
       <c r="K191" s="5">
-        <f xml:space="preserve"> (E191- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.12421972534332085</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192" s="2">
         <v>1469.2</v>
@@ -17607,28 +17612,28 @@
         <v>17745</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H192" s="2">
-        <f xml:space="preserve"> (B192 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.89320987654321016</v>
       </c>
       <c r="I192">
-        <f xml:space="preserve"> (C192 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.11794871794871795</v>
       </c>
       <c r="J192" s="2">
-        <f xml:space="preserve"> (D192- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>4.9544994944388292E-2</v>
       </c>
       <c r="K192" s="5">
-        <f xml:space="preserve"> (E192- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>0.10923845193508115</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="2">
         <v>1459.2</v>
@@ -17643,28 +17648,28 @@
         <v>17535</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H193" s="2">
-        <f xml:space="preserve"> (B193 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.83148148148148171</v>
       </c>
       <c r="I193">
-        <f xml:space="preserve"> (C193 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="11"/>
         <v>0.1076923076923077</v>
       </c>
       <c r="J193" s="2">
-        <f xml:space="preserve"> (D193- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="12"/>
         <v>3.7917087967644085E-2</v>
       </c>
       <c r="K193" s="5">
-        <f xml:space="preserve"> (E193- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="13"/>
         <v>9.612983770287141E-2</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" s="2">
         <v>1452.6</v>
@@ -17679,28 +17684,28 @@
         <v>17500</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H194" s="2">
-        <f xml:space="preserve"> (B194 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.79074074074074019</v>
       </c>
       <c r="I194">
-        <f xml:space="preserve"> (C194 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" ref="I194:I250" si="16" xml:space="preserve"> (C194 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
         <v>0.10512820512820513</v>
       </c>
       <c r="J194" s="2">
-        <f xml:space="preserve"> (D194- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" ref="J194:J250" si="17" xml:space="preserve"> (D194- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
         <v>0.10136501516683522</v>
       </c>
       <c r="K194" s="5">
-        <f xml:space="preserve"> (E194- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" ref="K194:K250" si="18" xml:space="preserve"> (E194- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
         <v>9.3945068664169781E-2</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195" s="2">
         <v>1449.5</v>
@@ -17715,28 +17720,28 @@
         <v>17265</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H195" s="2">
-        <f xml:space="preserve"> (B195 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.77160493827160492</v>
       </c>
       <c r="I195">
-        <f xml:space="preserve"> (C195 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="J195" s="2">
-        <f xml:space="preserve"> (D195- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.14130434782608695</v>
       </c>
       <c r="K195" s="5">
-        <f xml:space="preserve"> (E195- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.9275905118601747E-2</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196" s="2">
         <v>1448</v>
@@ -17751,28 +17756,28 @@
         <v>17160</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H196" s="2">
-        <f xml:space="preserve"> (B196 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.76234567901234573</v>
       </c>
       <c r="I196">
-        <f xml:space="preserve"> (C196 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>9.4871794871794868E-2</v>
       </c>
       <c r="J196" s="2">
-        <f xml:space="preserve"> (D196- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.28614762386248738</v>
       </c>
       <c r="K196" s="5">
-        <f xml:space="preserve"> (E196- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.2721598002496876E-2</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197" s="2">
         <v>1451.7</v>
@@ -17787,28 +17792,28 @@
         <v>17300</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H197" s="2">
-        <f xml:space="preserve"> (B197 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.78518518518518543</v>
       </c>
       <c r="I197">
-        <f xml:space="preserve"> (C197 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>9.7435897435897437E-2</v>
       </c>
       <c r="J197" s="2">
-        <f xml:space="preserve"> (D197- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.37537917087967648</v>
       </c>
       <c r="K197" s="5">
-        <f xml:space="preserve"> (E197- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>8.1460674157303375E-2</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" s="2">
         <v>1438.2</v>
@@ -17823,28 +17828,28 @@
         <v>17500</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H198" s="2">
-        <f xml:space="preserve"> (B198 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.70185185185185217</v>
       </c>
       <c r="I198">
-        <f xml:space="preserve"> (C198 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.10512820512820513</v>
       </c>
       <c r="J198" s="2">
-        <f xml:space="preserve"> (D198- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>7.8361981799797767E-2</v>
       </c>
       <c r="K198" s="5">
-        <f xml:space="preserve"> (E198- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>9.3945068664169781E-2</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199" s="2">
         <v>1438.5</v>
@@ -17859,28 +17864,28 @@
         <v>17490</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H199" s="2">
-        <f xml:space="preserve"> (B199 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.70370370370370372</v>
       </c>
       <c r="I199">
-        <f xml:space="preserve"> (C199 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="J199" s="2">
-        <f xml:space="preserve"> (D199- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>4.8533872598584424E-2</v>
       </c>
       <c r="K199" s="5">
-        <f xml:space="preserve"> (E199- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>9.3320848938826473E-2</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200" s="2">
         <v>1436.2</v>
@@ -17895,28 +17900,28 @@
         <v>17660</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H200" s="2">
-        <f xml:space="preserve"> (B200 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.68950617283950644</v>
       </c>
       <c r="I200">
-        <f xml:space="preserve"> (C200 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.1076923076923077</v>
       </c>
       <c r="J200" s="2">
-        <f xml:space="preserve"> (D200- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>2.628918099089992E-2</v>
       </c>
       <c r="K200" s="5">
-        <f xml:space="preserve"> (E200- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.10393258426966293</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201" s="2">
         <v>1431.8</v>
@@ -17931,28 +17936,28 @@
         <v>17835</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H201" s="2">
-        <f xml:space="preserve"> (B201 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.66234567901234542</v>
       </c>
       <c r="I201">
-        <f xml:space="preserve"> (C201 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.12307692307692308</v>
       </c>
       <c r="J201" s="2">
-        <f xml:space="preserve"> (D201- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>2.9069767441860472E-2</v>
       </c>
       <c r="K201" s="5">
-        <f xml:space="preserve"> (E201- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.11485642946317104</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" s="2">
         <v>1430.5</v>
@@ -17967,28 +17972,28 @@
         <v>17740</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H202" s="2">
-        <f xml:space="preserve"> (B202 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.65432098765432101</v>
       </c>
       <c r="I202">
-        <f xml:space="preserve"> (C202 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.11282051282051282</v>
       </c>
       <c r="J202" s="2">
-        <f xml:space="preserve"> (D202- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>2.0475227502527817E-2</v>
       </c>
       <c r="K202" s="5">
-        <f xml:space="preserve"> (E202- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.10892634207240949</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203" s="2">
         <v>1435.5</v>
@@ -18003,28 +18008,28 @@
         <v>17520</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H203" s="2">
-        <f xml:space="preserve"> (B203 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.68518518518518523</v>
       </c>
       <c r="I203">
-        <f xml:space="preserve"> (C203 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="J203" s="2">
-        <f xml:space="preserve"> (D203- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>3.5642062689585439E-2</v>
       </c>
       <c r="K203" s="5">
-        <f xml:space="preserve"> (E203- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>9.5193508114856426E-2</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204" s="2">
         <v>1432</v>
@@ -18039,28 +18044,28 @@
         <v>17440</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H204" s="2">
-        <f xml:space="preserve"> (B204 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.6635802469135802</v>
       </c>
       <c r="I204">
-        <f xml:space="preserve"> (C204 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>9.7435897435897437E-2</v>
       </c>
       <c r="J204" s="2">
-        <f xml:space="preserve"> (D204- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>3.5894843276036398E-2</v>
       </c>
       <c r="K204" s="5">
-        <f xml:space="preserve"> (E204- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>9.0199750312109861E-2</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B205" s="2">
         <v>1424</v>
@@ -18075,28 +18080,28 @@
         <v>17290</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H205" s="2">
-        <f xml:space="preserve"> (B205 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.61419753086419748</v>
       </c>
       <c r="I205">
-        <f xml:space="preserve"> (C205 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="J205" s="2">
-        <f xml:space="preserve"> (D205- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K205" s="5">
-        <f xml:space="preserve"> (E205- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>8.0836454431960053E-2</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" s="2">
         <v>1416.5</v>
@@ -18111,28 +18116,28 @@
         <v>17215</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H206" s="2">
-        <f xml:space="preserve"> (B206 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.5679012345679012</v>
       </c>
       <c r="I206">
-        <f xml:space="preserve"> (C206 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="J206" s="2">
-        <f xml:space="preserve"> (D206- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>1.9464105156723952E-2</v>
       </c>
       <c r="K206" s="5">
-        <f xml:space="preserve"> (E206- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.6154806491885149E-2</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207" s="2">
         <v>1413.5</v>
@@ -18147,28 +18152,28 @@
         <v>17160</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H207" s="2">
-        <f xml:space="preserve"> (B207 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.54938271604938271</v>
       </c>
       <c r="I207">
-        <f xml:space="preserve"> (C207 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="J207" s="2">
-        <f xml:space="preserve"> (D207- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>1.718907987866531E-2</v>
       </c>
       <c r="K207" s="5">
-        <f xml:space="preserve"> (E207- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.2721598002496876E-2</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208" s="2">
         <v>1417.5</v>
@@ -18183,28 +18188,28 @@
         <v>17035</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H208" s="2">
-        <f xml:space="preserve"> (B208 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.57407407407407407</v>
       </c>
       <c r="I208">
-        <f xml:space="preserve"> (C208 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>6.1538461538461542E-2</v>
       </c>
       <c r="J208" s="2">
-        <f xml:space="preserve"> (D208- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>1.3397371081900937E-2</v>
       </c>
       <c r="K208" s="5">
-        <f xml:space="preserve"> (E208- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>6.4918851435705374E-2</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209" s="2">
         <v>1406.5</v>
@@ -18219,28 +18224,28 @@
         <v>16955</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H209" s="2">
-        <f xml:space="preserve"> (B209 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.50617283950617287</v>
       </c>
       <c r="I209">
-        <f xml:space="preserve"> (C209 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>5.6410256410256411E-2</v>
       </c>
       <c r="J209" s="2">
-        <f xml:space="preserve"> (D209- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>1.4408493427704758E-2</v>
       </c>
       <c r="K209" s="5">
-        <f xml:space="preserve"> (E209- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.9925093632958802E-2</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B210" s="2">
         <v>1396.5</v>
@@ -18255,28 +18260,28 @@
         <v>17125</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H210" s="2">
-        <f xml:space="preserve"> (B210 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="I210">
-        <f xml:space="preserve"> (C210 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="J210" s="2">
-        <f xml:space="preserve"> (D210- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>1.8705763397371088E-2</v>
       </c>
       <c r="K210" s="5">
-        <f xml:space="preserve"> (E210- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.0536828963795262E-2</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211" s="2">
         <v>1396.5</v>
@@ -18291,28 +18296,28 @@
         <v>16895</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H211" s="2">
-        <f xml:space="preserve"> (B211 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="I211">
-        <f xml:space="preserve"> (C211 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>5.6410256410256411E-2</v>
       </c>
       <c r="J211" s="2">
-        <f xml:space="preserve"> (D211- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>2.8564206268958562E-2</v>
       </c>
       <c r="K211" s="5">
-        <f xml:space="preserve"> (E211- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.6179775280898875E-2</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212" s="2">
         <v>1393</v>
@@ -18327,28 +18332,28 @@
         <v>16945</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H212" s="2">
-        <f xml:space="preserve"> (B212 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.4228395061728395</v>
       </c>
       <c r="I212">
-        <f xml:space="preserve"> (C212 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>5.6410256410256411E-2</v>
       </c>
       <c r="J212" s="2">
-        <f xml:space="preserve"> (D212- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>3.3619817997977752E-2</v>
       </c>
       <c r="K212" s="5">
-        <f xml:space="preserve"> (E212- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.930087390761548E-2</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" s="2">
         <v>1397.5</v>
@@ -18363,28 +18368,28 @@
         <v>16910</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H213" s="2">
-        <f xml:space="preserve"> (B213 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.45061728395061729</v>
       </c>
       <c r="I213">
-        <f xml:space="preserve"> (C213 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>5.6410256410256411E-2</v>
       </c>
       <c r="J213" s="2">
-        <f xml:space="preserve"> (D213- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>3.3619817997977752E-2</v>
       </c>
       <c r="K213" s="5">
-        <f xml:space="preserve"> (E213- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.7116104868913858E-2</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214" s="2">
         <v>1400.5</v>
@@ -18399,28 +18404,28 @@
         <v>17225</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H214" s="2">
-        <f xml:space="preserve"> (B214 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.46913580246913578</v>
       </c>
       <c r="I214">
-        <f xml:space="preserve"> (C214 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="J214" s="2">
-        <f xml:space="preserve"> (D214- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>4.6258847320525785E-2</v>
       </c>
       <c r="K214" s="5">
-        <f xml:space="preserve"> (E214- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.6779026217228458E-2</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" s="2">
         <v>1405.5</v>
@@ -18435,28 +18440,28 @@
         <v>17350</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H215" s="2">
-        <f xml:space="preserve"> (B215 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="I215">
-        <f xml:space="preserve"> (C215 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.7179487179487175E-2</v>
       </c>
       <c r="J215" s="2">
-        <f xml:space="preserve"> (D215- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>6.2436804853387269E-2</v>
       </c>
       <c r="K215" s="5">
-        <f xml:space="preserve"> (E215- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>8.4581772784019973E-2</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" s="2">
         <v>1400</v>
@@ -18471,28 +18476,28 @@
         <v>17190</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H216" s="2">
-        <f xml:space="preserve"> (B216 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.4660493827160494</v>
       </c>
       <c r="I216">
-        <f xml:space="preserve"> (C216 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>7.179487179487179E-2</v>
       </c>
       <c r="J216" s="2">
-        <f xml:space="preserve"> (D216- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.10364004044489386</v>
       </c>
       <c r="K216" s="5">
-        <f xml:space="preserve"> (E216- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.4594257178526843E-2</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" s="2">
         <v>1400.2</v>
@@ -18507,28 +18512,28 @@
         <v>17115</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H217" s="2">
-        <f xml:space="preserve"> (B217 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.46728395061728423</v>
       </c>
       <c r="I217">
-        <f xml:space="preserve"> (C217 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>5.6410256410256411E-2</v>
       </c>
       <c r="J217" s="2">
-        <f xml:space="preserve"> (D217- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.1109706774519717</v>
       </c>
       <c r="K217" s="5">
-        <f xml:space="preserve"> (E217- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>6.9912609238451939E-2</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" s="2">
         <v>1393.5</v>
@@ -18543,28 +18548,28 @@
         <v>16820</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H218" s="2">
-        <f xml:space="preserve"> (B218 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.42592592592592593</v>
       </c>
       <c r="I218">
-        <f xml:space="preserve"> (C218 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>4.3589743589743588E-2</v>
       </c>
       <c r="J218" s="2">
-        <f xml:space="preserve"> (D218- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>9.0495449949443918E-2</v>
       </c>
       <c r="K218" s="5">
-        <f xml:space="preserve"> (E218- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.1498127340823971E-2</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" s="2">
         <v>1393.5</v>
@@ -18579,28 +18584,28 @@
         <v>16550</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H219" s="2">
-        <f xml:space="preserve"> (B219 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.42592592592592593</v>
       </c>
       <c r="I219">
-        <f xml:space="preserve"> (C219 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>3.0769230769230771E-2</v>
       </c>
       <c r="J219" s="2">
-        <f xml:space="preserve"> (D219- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>7.1031344792719928E-2</v>
       </c>
       <c r="K219" s="5">
-        <f xml:space="preserve"> (E219- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>3.4644194756554308E-2</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220" s="2">
         <v>1396</v>
@@ -18615,28 +18620,28 @@
         <v>16435</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H220" s="2">
-        <f xml:space="preserve"> (B220 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.44135802469135804</v>
       </c>
       <c r="I220">
-        <f xml:space="preserve"> (C220 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="J220" s="2">
-        <f xml:space="preserve"> (D220- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>8.5187057633973731E-2</v>
       </c>
       <c r="K220" s="5">
-        <f xml:space="preserve"> (E220- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>2.7465667915106119E-2</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221" s="2">
         <v>1406</v>
@@ -18651,28 +18656,28 @@
         <v>16350</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H221" s="2">
-        <f xml:space="preserve"> (B221 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.50308641975308643</v>
       </c>
       <c r="I221">
-        <f xml:space="preserve"> (C221 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>3.0769230769230771E-2</v>
       </c>
       <c r="J221" s="2">
-        <f xml:space="preserve"> (D221- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>3.8928210313447946E-2</v>
       </c>
       <c r="K221" s="5">
-        <f xml:space="preserve"> (E221- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>2.2159800249687889E-2</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B222" s="2">
         <v>1407</v>
@@ -18687,28 +18692,28 @@
         <v>16800</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H222" s="2">
-        <f xml:space="preserve"> (B222 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="15"/>
         <v>0.5092592592592593</v>
       </c>
       <c r="I222">
-        <f xml:space="preserve"> (C222 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>5.6410256410256411E-2</v>
       </c>
       <c r="J222" s="2">
-        <f xml:space="preserve"> (D222- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>3.1597573306370072E-2</v>
       </c>
       <c r="K222" s="5">
-        <f xml:space="preserve"> (E222- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.0249687890137326E-2</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B223" s="2">
         <v>1408.5</v>
@@ -18723,28 +18728,28 @@
         <v>16580</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H223" s="2">
-        <f xml:space="preserve"> (B223 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" ref="H223:H250" si="19" xml:space="preserve"> (B223 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
         <v>0.51851851851851849</v>
       </c>
       <c r="I223">
-        <f xml:space="preserve"> (C223 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>5.3846153846153849E-2</v>
       </c>
       <c r="J223" s="2">
-        <f xml:space="preserve"> (D223- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>4.9039433771486382E-2</v>
       </c>
       <c r="K223" s="5">
-        <f xml:space="preserve"> (E223- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>3.6516853932584269E-2</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224" s="2">
         <v>1401.3</v>
@@ -18759,28 +18764,28 @@
         <v>16950</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H224" s="2">
-        <f xml:space="preserve"> (B224 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.47407407407407381</v>
       </c>
       <c r="I224">
-        <f xml:space="preserve"> (C224 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>7.9487179487179482E-2</v>
       </c>
       <c r="J224" s="2">
-        <f xml:space="preserve"> (D224- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>5.5611729019211346E-2</v>
       </c>
       <c r="K224" s="5">
-        <f xml:space="preserve"> (E224- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.9612983770287141E-2</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225" s="2">
         <v>1399.5</v>
@@ -18795,28 +18800,28 @@
         <v>17260</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H225" s="2">
-        <f xml:space="preserve"> (B225 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.46296296296296297</v>
       </c>
       <c r="I225">
-        <f xml:space="preserve"> (C225 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.2051282051282051E-2</v>
       </c>
       <c r="J225" s="2">
-        <f xml:space="preserve"> (D225- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>5.4853387259858437E-2</v>
       </c>
       <c r="K225" s="5">
-        <f xml:space="preserve"> (E225- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.8963795255930086E-2</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B226" s="2">
         <v>1385</v>
@@ -18831,28 +18836,28 @@
         <v>17020</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H226" s="2">
-        <f xml:space="preserve"> (B226 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.37345679012345678</v>
       </c>
       <c r="I226">
-        <f xml:space="preserve"> (C226 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="J226" s="2">
-        <f xml:space="preserve"> (D226- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>6.1425682507583408E-2</v>
       </c>
       <c r="K226" s="5">
-        <f xml:space="preserve"> (E226- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>6.3982521847690391E-2</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227" s="2">
         <v>1401</v>
@@ -18867,28 +18872,28 @@
         <v>17660</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H227" s="2">
-        <f xml:space="preserve"> (B227 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.47222222222222221</v>
       </c>
       <c r="I227">
-        <f xml:space="preserve"> (C227 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.10256410256410256</v>
       </c>
       <c r="J227" s="2">
-        <f xml:space="preserve"> (D227- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>8.8473205257836196E-2</v>
       </c>
       <c r="K227" s="5">
-        <f xml:space="preserve"> (E227- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.10393258426966293</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" s="2">
         <v>1379.8</v>
@@ -18903,28 +18908,28 @@
         <v>17400</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H228" s="2">
-        <f xml:space="preserve"> (B228 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.34135802469135773</v>
       </c>
       <c r="I228">
-        <f xml:space="preserve"> (C228 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="J228" s="2">
-        <f xml:space="preserve"> (D228- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.19514661274014153</v>
       </c>
       <c r="K228" s="5">
-        <f xml:space="preserve"> (E228- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>8.7702871410736585E-2</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" s="2">
         <v>1376</v>
@@ -18939,28 +18944,28 @@
         <v>17305</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H229" s="2">
-        <f xml:space="preserve"> (B229 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.31790123456790126</v>
       </c>
       <c r="I229">
-        <f xml:space="preserve"> (C229 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="J229" s="2">
-        <f xml:space="preserve"> (D229- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.2328109201213347</v>
       </c>
       <c r="K229" s="5">
-        <f xml:space="preserve"> (E229- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>8.1772784019975037E-2</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230" s="2">
         <v>1380.5</v>
@@ -18975,28 +18980,28 @@
         <v>17750</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H230" s="2">
-        <f xml:space="preserve"> (B230 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.34567901234567899</v>
       </c>
       <c r="I230">
-        <f xml:space="preserve"> (C230 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>9.7435897435897437E-2</v>
       </c>
       <c r="J230" s="2">
-        <f xml:space="preserve"> (D230- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.23028311425682504</v>
       </c>
       <c r="K230" s="5">
-        <f xml:space="preserve"> (E230- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.10955056179775281</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" s="2">
         <v>1376</v>
@@ -19011,28 +19016,28 @@
         <v>18190</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H231" s="2">
-        <f xml:space="preserve"> (B231 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.31790123456790126</v>
       </c>
       <c r="I231">
-        <f xml:space="preserve"> (C231 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.11794871794871795</v>
       </c>
       <c r="J231" s="2">
-        <f xml:space="preserve"> (D231- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.26263902932254801</v>
       </c>
       <c r="K231" s="5">
-        <f xml:space="preserve"> (E231- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.13701622971285893</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232" s="2">
         <v>1380</v>
@@ -19047,28 +19052,28 @@
         <v>18435</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H232" s="2">
-        <f xml:space="preserve"> (B232 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.34259259259259262</v>
       </c>
       <c r="I232">
-        <f xml:space="preserve"> (C232 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.11794871794871795</v>
       </c>
       <c r="J232" s="2">
-        <f xml:space="preserve"> (D232- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.19160768452982815</v>
       </c>
       <c r="K232" s="5">
-        <f xml:space="preserve"> (E232- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.1523096129837703</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233" s="2">
         <v>1385</v>
@@ -19083,28 +19088,28 @@
         <v>18340</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H233" s="2">
-        <f xml:space="preserve"> (B233 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.37345679012345678</v>
       </c>
       <c r="I233">
-        <f xml:space="preserve"> (C233 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.11025641025641025</v>
       </c>
       <c r="J233" s="2">
-        <f xml:space="preserve"> (D233- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.16607684529828109</v>
       </c>
       <c r="K233" s="5">
-        <f xml:space="preserve"> (E233- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.14637952559300874</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234" s="2">
         <v>1384</v>
@@ -19119,28 +19124,28 @@
         <v>18365</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H234" s="2">
-        <f xml:space="preserve"> (B234 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.36728395061728397</v>
       </c>
       <c r="I234">
-        <f xml:space="preserve"> (C234 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>9.7435897435897437E-2</v>
       </c>
       <c r="J234" s="2">
-        <f xml:space="preserve"> (D234- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.1777047522750253</v>
       </c>
       <c r="K234" s="5">
-        <f xml:space="preserve"> (E234- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.14794007490636704</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" s="2">
         <v>1390.5</v>
@@ -19155,28 +19160,28 @@
         <v>18225</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H235" s="2">
-        <f xml:space="preserve"> (B235 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.40740740740740738</v>
       </c>
       <c r="I235">
-        <f xml:space="preserve"> (C235 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>9.7435897435897437E-2</v>
       </c>
       <c r="J235" s="2">
-        <f xml:space="preserve"> (D235- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.19110212335692614</v>
       </c>
       <c r="K235" s="5">
-        <f xml:space="preserve"> (E235- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.13920099875156056</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" s="2">
         <v>1381</v>
@@ -19191,28 +19196,28 @@
         <v>18305</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H236" s="2">
-        <f xml:space="preserve"> (B236 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.34876543209876543</v>
       </c>
       <c r="I236">
-        <f xml:space="preserve"> (C236 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="J236" s="2">
-        <f xml:space="preserve"> (D236- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.15950455005055608</v>
       </c>
       <c r="K236" s="5">
-        <f xml:space="preserve"> (E236- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.14419475655430711</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237" s="2">
         <v>1382</v>
@@ -19227,28 +19232,28 @@
         <v>18700</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H237" s="2">
-        <f xml:space="preserve"> (B237 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.35493827160493829</v>
       </c>
       <c r="I237">
-        <f xml:space="preserve"> (C237 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0.10256410256410256</v>
       </c>
       <c r="J237" s="2">
-        <f xml:space="preserve"> (D237- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.16354903943377144</v>
       </c>
       <c r="K237" s="5">
-        <f xml:space="preserve"> (E237- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.16885143570536829</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238" s="2">
         <v>1380</v>
@@ -19263,28 +19268,28 @@
         <v>17970</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H238" s="2">
-        <f xml:space="preserve"> (B238 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.34259259259259262</v>
       </c>
       <c r="I238">
-        <f xml:space="preserve"> (C238 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="J238" s="2">
-        <f xml:space="preserve"> (D238- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.13725985844287159</v>
       </c>
       <c r="K238" s="5">
-        <f xml:space="preserve"> (E238- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0.12328339575530586</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239" s="2">
         <v>1380.4</v>
@@ -19299,28 +19304,28 @@
         <v>17570</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H239" s="2">
-        <f xml:space="preserve"> (B239 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.34506172839506227</v>
       </c>
       <c r="I239">
-        <f xml:space="preserve"> (C239 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>8.2051282051282051E-2</v>
       </c>
       <c r="J239" s="2">
-        <f xml:space="preserve"> (D239- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.14155712841253795</v>
       </c>
       <c r="K239" s="5">
-        <f xml:space="preserve"> (E239- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>9.8314606741573038E-2</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" s="2">
         <v>1369.5</v>
@@ -19335,28 +19340,28 @@
         <v>17195</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H240" s="2">
-        <f xml:space="preserve"> (B240 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="I240">
-        <f xml:space="preserve"> (C240 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>6.4102564102564097E-2</v>
       </c>
       <c r="J240" s="2">
-        <f xml:space="preserve"> (D240- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.1329625884732053</v>
       </c>
       <c r="K240" s="5">
-        <f xml:space="preserve"> (E240- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>7.4906367041198504E-2</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" s="2">
         <v>1372.5</v>
@@ -19371,28 +19376,28 @@
         <v>16855</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H241" s="2">
-        <f xml:space="preserve"> (B241 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="I241">
-        <f xml:space="preserve"> (C241 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>4.8717948717948718E-2</v>
       </c>
       <c r="J241" s="2">
-        <f xml:space="preserve"> (D241- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.16026289180990899</v>
       </c>
       <c r="K241" s="5">
-        <f xml:space="preserve"> (E241- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>5.3682896379525592E-2</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" s="2">
         <v>1365</v>
@@ -19407,28 +19412,28 @@
         <v>16690</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H242" s="2">
-        <f xml:space="preserve"> (B242 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="I242">
-        <f xml:space="preserve"> (C242 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>4.3589743589743588E-2</v>
       </c>
       <c r="J242" s="2">
-        <f xml:space="preserve"> (D242- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.17214357937310409</v>
       </c>
       <c r="K242" s="5">
-        <f xml:space="preserve"> (E242- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>4.3383270911360801E-2</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243" s="2">
         <v>1365</v>
@@ -19443,28 +19448,28 @@
         <v>16515</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H243" s="2">
-        <f xml:space="preserve"> (B243 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="I243">
-        <f xml:space="preserve"> (C243 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>2.8205128205128206E-2</v>
       </c>
       <c r="J243" s="2">
-        <f xml:space="preserve"> (D243- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.19893832153690599</v>
       </c>
       <c r="K243" s="5">
-        <f xml:space="preserve"> (E243- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>3.2459425717852687E-2</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244" s="2">
         <v>1359</v>
@@ -19479,28 +19484,28 @@
         <v>16495</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H244" s="2">
-        <f xml:space="preserve"> (B244 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.21296296296296297</v>
       </c>
       <c r="I244">
-        <f xml:space="preserve"> (C244 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>2.8205128205128206E-2</v>
       </c>
       <c r="J244" s="2">
-        <f xml:space="preserve"> (D244- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.17517694641051565</v>
       </c>
       <c r="K244" s="5">
-        <f xml:space="preserve"> (E244- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>3.1210986267166042E-2</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245" s="2">
         <v>1351.5</v>
@@ -19515,28 +19520,28 @@
         <v>16290</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H245" s="2">
-        <f xml:space="preserve"> (B245 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I245">
-        <f xml:space="preserve"> (C245 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>1.5384615384615385E-2</v>
       </c>
       <c r="J245" s="2">
-        <f xml:space="preserve"> (D245- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.1943882709807887</v>
       </c>
       <c r="K245" s="5">
-        <f xml:space="preserve"> (E245- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>1.8414481897627965E-2</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" s="2">
         <v>1351.5</v>
@@ -19551,28 +19556,28 @@
         <v>16200</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H246" s="2">
-        <f xml:space="preserve"> (B246 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I246">
-        <f xml:space="preserve"> (C246 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J246" s="2">
-        <f xml:space="preserve"> (D246- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.2062689585439838</v>
       </c>
       <c r="K246" s="5">
-        <f xml:space="preserve"> (E246- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>1.2796504369538077E-2</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" s="2">
         <v>1344</v>
@@ -19587,28 +19592,28 @@
         <v>16320</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H247" s="2">
-        <f xml:space="preserve"> (B247 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.12037037037037036</v>
       </c>
       <c r="I247">
-        <f xml:space="preserve"> (C247 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>1.5384615384615385E-2</v>
       </c>
       <c r="J247" s="2">
-        <f xml:space="preserve"> (D247- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.21865520728008092</v>
       </c>
       <c r="K247" s="5">
-        <f xml:space="preserve"> (E247- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>2.0287141073657929E-2</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" s="2">
         <v>1346</v>
@@ -19623,28 +19628,28 @@
         <v>16305</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H248" s="2">
-        <f xml:space="preserve"> (B248 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.13271604938271606</v>
       </c>
       <c r="I248">
-        <f xml:space="preserve"> (C248 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>1.282051282051282E-2</v>
       </c>
       <c r="J248" s="2">
-        <f xml:space="preserve"> (D248- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.2494944388270981</v>
       </c>
       <c r="K248" s="5">
-        <f xml:space="preserve"> (E248- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>1.9350811485642945E-2</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" s="2">
         <v>1348.7</v>
@@ -19659,28 +19664,28 @@
         <v>16250</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H249" s="2">
-        <f xml:space="preserve"> (B249 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0.149382716049383</v>
       </c>
       <c r="I249">
-        <f xml:space="preserve"> (C249 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>1.0256410256410256E-2</v>
       </c>
       <c r="J249" s="2">
-        <f xml:space="preserve"> (D249- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.16279069767441862</v>
       </c>
       <c r="K249" s="5">
-        <f xml:space="preserve"> (E249- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>1.5917602996254682E-2</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250" s="2">
         <v>1324.5</v>
@@ -19695,22 +19700,22 @@
         <v>15995</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H250" s="2">
-        <f xml:space="preserve"> (B250 - MIN($B$2:$B$250)) / (MAX($B$2:$B$250) - MIN($B$2:$B$250))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I250">
-        <f xml:space="preserve"> (C250 - MIN($C$2:$C$250)) / (MAX($C$2:$C$250) - MIN($C$2:$C$250))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J250" s="2">
-        <f xml:space="preserve"> (D250- MIN($D$2:$D$250)) / (MAX($D$2:$D$250) - MIN($D$2:$D$250))</f>
+        <f t="shared" si="17"/>
         <v>0.15495449949443879</v>
       </c>
       <c r="K250" s="5">
-        <f xml:space="preserve"> (E250- MIN($E$2:$E$250)) / (MAX($E$2:$E$250) - MIN($E$2:$E$250))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
